--- a/LFSNEWData/ISCO_fullCode.xlsx
+++ b/LFSNEWData/ISCO_fullCode.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D10AFF-804E-46C4-8A9E-12409B12F6DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{858251A5-102B-46CF-AAC3-09FB5725F18F}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,22 +13,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="593">
   <si>
     <t>Managers</t>
   </si>
@@ -1774,17 +1757,56 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Armed Forces Occupations</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Commissioned Armed Forces Officers</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Non-commissioned Armed Forces Officers</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>0210</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Armed Forces Occupations, Other Ranks</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>0310</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1808,6 +1830,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1829,7 +1867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1840,20 +1878,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1900,7 +1948,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1952,7 +2000,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2146,27 +2194,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2382D6-EACD-4DD3-8EC4-C969C4DD48CC}">
-  <dimension ref="A1:B610"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B620"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A584" workbookViewId="0">
+      <selection activeCell="D612" sqref="D612"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>578</v>
       </c>
@@ -2174,7 +2222,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2182,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15">
       <c r="A3" s="2">
         <v>11</v>
       </c>
@@ -2190,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>111</v>
       </c>
@@ -2198,7 +2246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="3">
         <v>1111</v>
       </c>
@@ -2206,7 +2254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>1112</v>
       </c>
@@ -2214,7 +2262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="3">
         <v>1113</v>
       </c>
@@ -2222,7 +2270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="3">
         <v>1114</v>
       </c>
@@ -2230,7 +2278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="3">
         <v>112</v>
       </c>
@@ -2238,7 +2286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="3">
         <v>1120</v>
       </c>
@@ -2246,7 +2294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -2254,7 +2302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="3">
         <v>121</v>
       </c>
@@ -2262,7 +2310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="3">
         <v>1211</v>
       </c>
@@ -2270,7 +2318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="3">
         <v>1212</v>
       </c>
@@ -2278,7 +2326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="3">
         <v>1213</v>
       </c>
@@ -2286,7 +2334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="3">
         <v>1219</v>
       </c>
@@ -2294,7 +2342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="3">
         <v>122</v>
       </c>
@@ -2302,7 +2350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="3">
         <v>1221</v>
       </c>
@@ -2310,7 +2358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="3">
         <v>1222</v>
       </c>
@@ -2318,7 +2366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="3">
         <v>1223</v>
       </c>
@@ -2326,7 +2374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15">
       <c r="A21" s="2">
         <v>13</v>
       </c>
@@ -2334,7 +2382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="3">
         <v>131</v>
       </c>
@@ -2342,7 +2390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="3">
         <v>1311</v>
       </c>
@@ -2350,7 +2398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="3">
         <v>1312</v>
       </c>
@@ -2358,7 +2406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="3">
         <v>132</v>
       </c>
@@ -2366,7 +2414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="3">
         <v>1321</v>
       </c>
@@ -2374,7 +2422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="3">
         <v>1322</v>
       </c>
@@ -2382,7 +2430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="3">
         <v>1323</v>
       </c>
@@ -2390,7 +2438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="3">
         <v>1324</v>
       </c>
@@ -2398,7 +2446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="3">
         <v>133</v>
       </c>
@@ -2406,7 +2454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" s="3">
         <v>1330</v>
       </c>
@@ -2414,7 +2462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="3">
         <v>134</v>
       </c>
@@ -2422,7 +2470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" s="3">
         <v>1341</v>
       </c>
@@ -2430,7 +2478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="3">
         <v>1342</v>
       </c>
@@ -2438,7 +2486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" s="3">
         <v>1343</v>
       </c>
@@ -2446,7 +2494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" s="3">
         <v>1344</v>
       </c>
@@ -2454,7 +2502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" s="3">
         <v>1345</v>
       </c>
@@ -2462,7 +2510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" s="3">
         <v>1346</v>
       </c>
@@ -2470,7 +2518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="3">
         <v>1349</v>
       </c>
@@ -2478,7 +2526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="15">
       <c r="A40" s="2">
         <v>14</v>
       </c>
@@ -2486,7 +2534,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="3">
         <v>141</v>
       </c>
@@ -2494,7 +2542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="3">
         <v>1411</v>
       </c>
@@ -2502,7 +2550,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" s="3">
         <v>1412</v>
       </c>
@@ -2510,7 +2558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" s="3">
         <v>142</v>
       </c>
@@ -2518,7 +2566,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" s="3">
         <v>1420</v>
       </c>
@@ -2526,7 +2574,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" s="3">
         <v>143</v>
       </c>
@@ -2534,7 +2582,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" s="3">
         <v>1431</v>
       </c>
@@ -2542,7 +2590,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" s="3">
         <v>1439</v>
       </c>
@@ -2550,7 +2598,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="15.75">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -2558,7 +2606,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="15">
       <c r="A50" s="2">
         <v>21</v>
       </c>
@@ -2566,7 +2614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" s="3">
         <v>211</v>
       </c>
@@ -2574,7 +2622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" s="3">
         <v>2111</v>
       </c>
@@ -2582,7 +2630,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" s="3">
         <v>2112</v>
       </c>
@@ -2590,7 +2638,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="A54" s="3">
         <v>2113</v>
       </c>
@@ -2598,7 +2646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" s="3">
         <v>2114</v>
       </c>
@@ -2606,7 +2654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" s="3">
         <v>212</v>
       </c>
@@ -2614,7 +2662,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" s="3">
         <v>2120</v>
       </c>
@@ -2622,7 +2670,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" s="3">
         <v>213</v>
       </c>
@@ -2630,7 +2678,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" s="3">
         <v>2131</v>
       </c>
@@ -2638,7 +2686,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" s="3">
         <v>2132</v>
       </c>
@@ -2646,7 +2694,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" s="3">
         <v>2133</v>
       </c>
@@ -2654,7 +2702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62" s="3">
         <v>214</v>
       </c>
@@ -2662,7 +2710,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63" s="3">
         <v>2141</v>
       </c>
@@ -2670,7 +2718,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" s="3">
         <v>2142</v>
       </c>
@@ -2678,7 +2726,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" s="3">
         <v>2143</v>
       </c>
@@ -2686,7 +2734,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" s="3">
         <v>2144</v>
       </c>
@@ -2694,7 +2742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" s="3">
         <v>2145</v>
       </c>
@@ -2702,7 +2750,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" s="3">
         <v>2146</v>
       </c>
@@ -2710,7 +2758,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" s="3">
         <v>2149</v>
       </c>
@@ -2718,7 +2766,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" s="3">
         <v>215</v>
       </c>
@@ -2726,7 +2774,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="A71" s="3">
         <v>2151</v>
       </c>
@@ -2734,7 +2782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72" s="3">
         <v>2152</v>
       </c>
@@ -2742,7 +2790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" s="3">
         <v>2153</v>
       </c>
@@ -2750,7 +2798,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="A74" s="3">
         <v>216</v>
       </c>
@@ -2758,7 +2806,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75" s="3">
         <v>2161</v>
       </c>
@@ -2766,7 +2814,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2">
       <c r="A76" s="3">
         <v>2162</v>
       </c>
@@ -2774,7 +2822,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77" s="3">
         <v>2163</v>
       </c>
@@ -2782,7 +2830,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78" s="3">
         <v>2164</v>
       </c>
@@ -2790,7 +2838,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79" s="3">
         <v>2165</v>
       </c>
@@ -2798,7 +2846,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2">
       <c r="A80" s="3">
         <v>2166</v>
       </c>
@@ -2806,7 +2854,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="15">
       <c r="A81" s="2">
         <v>22</v>
       </c>
@@ -2814,7 +2862,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82" s="3">
         <v>221</v>
       </c>
@@ -2822,7 +2870,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83" s="3">
         <v>2211</v>
       </c>
@@ -2830,7 +2878,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84" s="3">
         <v>2212</v>
       </c>
@@ -2838,7 +2886,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" s="3">
         <v>222</v>
       </c>
@@ -2846,7 +2894,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" s="3">
         <v>2221</v>
       </c>
@@ -2854,7 +2902,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87" s="3">
         <v>2222</v>
       </c>
@@ -2862,7 +2910,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88" s="3">
         <v>223</v>
       </c>
@@ -2870,7 +2918,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="A89" s="3">
         <v>2230</v>
       </c>
@@ -2878,7 +2926,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="A90" s="3">
         <v>224</v>
       </c>
@@ -2886,7 +2934,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="A91" s="3">
         <v>2240</v>
       </c>
@@ -2894,7 +2942,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92" s="3">
         <v>225</v>
       </c>
@@ -2902,7 +2950,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="A93" s="3">
         <v>2250</v>
       </c>
@@ -2910,7 +2958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94" s="3">
         <v>226</v>
       </c>
@@ -2918,7 +2966,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95" s="3">
         <v>2261</v>
       </c>
@@ -2926,7 +2974,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96" s="3">
         <v>2262</v>
       </c>
@@ -2934,7 +2982,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97" s="3">
         <v>2263</v>
       </c>
@@ -2942,7 +2990,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="A98" s="3">
         <v>2264</v>
       </c>
@@ -2950,7 +2998,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="A99" s="3">
         <v>2265</v>
       </c>
@@ -2958,7 +3006,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" s="3">
         <v>2266</v>
       </c>
@@ -2966,7 +3014,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101" s="3">
         <v>2267</v>
       </c>
@@ -2974,7 +3022,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102" s="3">
         <v>2269</v>
       </c>
@@ -2982,7 +3030,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="15">
       <c r="A103" s="2">
         <v>23</v>
       </c>
@@ -2990,7 +3038,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="A104" s="3">
         <v>231</v>
       </c>
@@ -2998,7 +3046,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2">
       <c r="A105" s="3">
         <v>2310</v>
       </c>
@@ -3006,7 +3054,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2">
       <c r="A106" s="3">
         <v>232</v>
       </c>
@@ -3014,7 +3062,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2">
       <c r="A107" s="3">
         <v>2320</v>
       </c>
@@ -3022,7 +3070,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2">
       <c r="A108" s="3">
         <v>233</v>
       </c>
@@ -3030,7 +3078,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2">
       <c r="A109" s="3">
         <v>2330</v>
       </c>
@@ -3038,7 +3086,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2">
       <c r="A110" s="3">
         <v>234</v>
       </c>
@@ -3046,7 +3094,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2">
       <c r="A111" s="3">
         <v>2341</v>
       </c>
@@ -3054,7 +3102,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2">
       <c r="A112" s="3">
         <v>2342</v>
       </c>
@@ -3062,7 +3110,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2">
       <c r="A113" s="3">
         <v>235</v>
       </c>
@@ -3070,7 +3118,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2">
       <c r="A114" s="3">
         <v>2351</v>
       </c>
@@ -3078,7 +3126,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2">
       <c r="A115" s="3">
         <v>2352</v>
       </c>
@@ -3086,7 +3134,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2">
       <c r="A116" s="3">
         <v>2353</v>
       </c>
@@ -3094,7 +3142,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2">
       <c r="A117" s="3">
         <v>2354</v>
       </c>
@@ -3102,7 +3150,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2">
       <c r="A118" s="3">
         <v>2355</v>
       </c>
@@ -3110,7 +3158,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2">
       <c r="A119" s="3">
         <v>2356</v>
       </c>
@@ -3118,7 +3166,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2">
       <c r="A120" s="3">
         <v>2359</v>
       </c>
@@ -3126,7 +3174,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="15">
       <c r="A121" s="2">
         <v>24</v>
       </c>
@@ -3134,7 +3182,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2">
       <c r="A122" s="3">
         <v>241</v>
       </c>
@@ -3142,7 +3190,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2">
       <c r="A123" s="3">
         <v>2411</v>
       </c>
@@ -3150,7 +3198,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2">
       <c r="A124" s="3">
         <v>2412</v>
       </c>
@@ -3158,7 +3206,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2">
       <c r="A125" s="3">
         <v>2413</v>
       </c>
@@ -3166,7 +3214,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2">
       <c r="A126" s="3">
         <v>242</v>
       </c>
@@ -3174,7 +3222,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2">
       <c r="A127" s="3">
         <v>2421</v>
       </c>
@@ -3182,7 +3230,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2">
       <c r="A128" s="3">
         <v>2422</v>
       </c>
@@ -3190,7 +3238,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2">
       <c r="A129" s="3">
         <v>2423</v>
       </c>
@@ -3198,7 +3246,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2">
       <c r="A130" s="3">
         <v>2424</v>
       </c>
@@ -3206,7 +3254,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2">
       <c r="A131" s="3">
         <v>243</v>
       </c>
@@ -3214,7 +3262,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2">
       <c r="A132" s="3">
         <v>2431</v>
       </c>
@@ -3222,7 +3270,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2">
       <c r="A133" s="3">
         <v>2432</v>
       </c>
@@ -3230,7 +3278,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2">
       <c r="A134" s="3">
         <v>2433</v>
       </c>
@@ -3238,7 +3286,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2">
       <c r="A135" s="3">
         <v>2434</v>
       </c>
@@ -3246,7 +3294,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="15">
       <c r="A136" s="2">
         <v>25</v>
       </c>
@@ -3254,7 +3302,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2">
       <c r="A137" s="3">
         <v>251</v>
       </c>
@@ -3262,7 +3310,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2">
       <c r="A138" s="3">
         <v>2511</v>
       </c>
@@ -3270,7 +3318,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2">
       <c r="A139" s="3">
         <v>2512</v>
       </c>
@@ -3278,7 +3326,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2">
       <c r="A140" s="3">
         <v>2513</v>
       </c>
@@ -3286,7 +3334,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2">
       <c r="A141" s="3">
         <v>2514</v>
       </c>
@@ -3294,7 +3342,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2">
       <c r="A142" s="3">
         <v>2519</v>
       </c>
@@ -3302,7 +3350,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2">
       <c r="A143" s="3">
         <v>252</v>
       </c>
@@ -3310,7 +3358,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2">
       <c r="A144" s="3">
         <v>2521</v>
       </c>
@@ -3318,7 +3366,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2">
       <c r="A145" s="3">
         <v>2522</v>
       </c>
@@ -3326,7 +3374,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2">
       <c r="A146" s="3">
         <v>2523</v>
       </c>
@@ -3334,7 +3382,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2">
       <c r="A147" s="3">
         <v>2529</v>
       </c>
@@ -3342,7 +3390,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="15">
       <c r="A148" s="2">
         <v>26</v>
       </c>
@@ -3350,7 +3398,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2">
       <c r="A149" s="3">
         <v>261</v>
       </c>
@@ -3358,7 +3406,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2">
       <c r="A150" s="3">
         <v>2611</v>
       </c>
@@ -3366,7 +3414,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2">
       <c r="A151" s="3">
         <v>2612</v>
       </c>
@@ -3374,7 +3422,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2">
       <c r="A152" s="3">
         <v>2619</v>
       </c>
@@ -3382,7 +3430,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2">
       <c r="A153" s="3">
         <v>262</v>
       </c>
@@ -3390,7 +3438,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2">
       <c r="A154" s="3">
         <v>2621</v>
       </c>
@@ -3398,7 +3446,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2">
       <c r="A155" s="3">
         <v>2622</v>
       </c>
@@ -3406,7 +3454,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2">
       <c r="A156" s="3">
         <v>263</v>
       </c>
@@ -3414,7 +3462,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2">
       <c r="A157" s="3">
         <v>2631</v>
       </c>
@@ -3422,7 +3470,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2">
       <c r="A158" s="3">
         <v>2632</v>
       </c>
@@ -3430,7 +3478,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2">
       <c r="A159" s="3">
         <v>2633</v>
       </c>
@@ -3438,7 +3486,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2">
       <c r="A160" s="3">
         <v>2634</v>
       </c>
@@ -3446,7 +3494,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2">
       <c r="A161" s="3">
         <v>2635</v>
       </c>
@@ -3454,7 +3502,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2">
       <c r="A162" s="3">
         <v>2636</v>
       </c>
@@ -3462,7 +3510,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2">
       <c r="A163" s="3">
         <v>264</v>
       </c>
@@ -3470,7 +3518,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2">
       <c r="A164" s="3">
         <v>2641</v>
       </c>
@@ -3478,7 +3526,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2">
       <c r="A165" s="3">
         <v>2642</v>
       </c>
@@ -3486,7 +3534,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2">
       <c r="A166" s="3">
         <v>2643</v>
       </c>
@@ -3494,7 +3542,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2">
       <c r="A167" s="3">
         <v>265</v>
       </c>
@@ -3502,7 +3550,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2">
       <c r="A168" s="3">
         <v>2651</v>
       </c>
@@ -3510,7 +3558,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2">
       <c r="A169" s="3">
         <v>2652</v>
       </c>
@@ -3518,7 +3566,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2">
       <c r="A170" s="3">
         <v>2653</v>
       </c>
@@ -3526,7 +3574,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2">
       <c r="A171" s="3">
         <v>2654</v>
       </c>
@@ -3534,7 +3582,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2">
       <c r="A172" s="3">
         <v>2655</v>
       </c>
@@ -3542,7 +3590,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2">
       <c r="A173" s="3">
         <v>2656</v>
       </c>
@@ -3550,7 +3598,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2">
       <c r="A174" s="3">
         <v>2659</v>
       </c>
@@ -3558,7 +3606,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="15.75">
       <c r="A175" s="1">
         <v>3</v>
       </c>
@@ -3566,7 +3614,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="15">
       <c r="A176" s="2">
         <v>31</v>
       </c>
@@ -3574,7 +3622,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2">
       <c r="A177" s="3">
         <v>311</v>
       </c>
@@ -3582,7 +3630,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2">
       <c r="A178" s="3">
         <v>3111</v>
       </c>
@@ -3590,7 +3638,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2">
       <c r="A179" s="3">
         <v>3112</v>
       </c>
@@ -3598,7 +3646,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2">
       <c r="A180" s="3">
         <v>3113</v>
       </c>
@@ -3606,7 +3654,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2">
       <c r="A181" s="3">
         <v>3114</v>
       </c>
@@ -3614,7 +3662,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2">
       <c r="A182" s="3">
         <v>3115</v>
       </c>
@@ -3622,7 +3670,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2">
       <c r="A183" s="3">
         <v>3116</v>
       </c>
@@ -3630,7 +3678,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2">
       <c r="A184" s="3">
         <v>3117</v>
       </c>
@@ -3638,7 +3686,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2">
       <c r="A185" s="3">
         <v>3118</v>
       </c>
@@ -3646,7 +3694,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2">
       <c r="A186" s="3">
         <v>3119</v>
       </c>
@@ -3654,7 +3702,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2">
       <c r="A187" s="3">
         <v>312</v>
       </c>
@@ -3662,7 +3710,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2">
       <c r="A188" s="3">
         <v>3121</v>
       </c>
@@ -3670,7 +3718,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2">
       <c r="A189" s="3">
         <v>3122</v>
       </c>
@@ -3678,7 +3726,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2">
       <c r="A190" s="3">
         <v>3123</v>
       </c>
@@ -3686,7 +3734,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2">
       <c r="A191" s="3">
         <v>313</v>
       </c>
@@ -3694,7 +3742,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2">
       <c r="A192" s="3">
         <v>3131</v>
       </c>
@@ -3702,7 +3750,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2">
       <c r="A193" s="3">
         <v>3132</v>
       </c>
@@ -3710,7 +3758,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2">
       <c r="A194" s="3">
         <v>3133</v>
       </c>
@@ -3718,7 +3766,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2">
       <c r="A195" s="3">
         <v>3134</v>
       </c>
@@ -3726,7 +3774,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2">
       <c r="A196" s="3">
         <v>3135</v>
       </c>
@@ -3734,7 +3782,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2">
       <c r="A197" s="3">
         <v>3139</v>
       </c>
@@ -3742,7 +3790,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2">
       <c r="A198" s="3">
         <v>314</v>
       </c>
@@ -3750,7 +3798,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2">
       <c r="A199" s="3">
         <v>3141</v>
       </c>
@@ -3758,7 +3806,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2">
       <c r="A200" s="3">
         <v>3142</v>
       </c>
@@ -3766,7 +3814,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2">
       <c r="A201" s="3">
         <v>3143</v>
       </c>
@@ -3774,7 +3822,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2">
       <c r="A202" s="3">
         <v>315</v>
       </c>
@@ -3782,7 +3830,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2">
       <c r="A203" s="3">
         <v>3151</v>
       </c>
@@ -3790,7 +3838,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2">
       <c r="A204" s="3">
         <v>3152</v>
       </c>
@@ -3798,7 +3846,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2">
       <c r="A205" s="3">
         <v>3153</v>
       </c>
@@ -3806,7 +3854,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2">
       <c r="A206" s="3">
         <v>3154</v>
       </c>
@@ -3814,7 +3862,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2">
       <c r="A207" s="3">
         <v>3155</v>
       </c>
@@ -3822,7 +3870,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" ht="15">
       <c r="A208" s="2">
         <v>32</v>
       </c>
@@ -3830,7 +3878,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2">
       <c r="A209" s="3">
         <v>321</v>
       </c>
@@ -3838,7 +3886,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2">
       <c r="A210" s="3">
         <v>3211</v>
       </c>
@@ -3846,7 +3894,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2">
       <c r="A211" s="3">
         <v>3212</v>
       </c>
@@ -3854,7 +3902,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2">
       <c r="A212" s="3">
         <v>3213</v>
       </c>
@@ -3862,7 +3910,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2">
       <c r="A213" s="3">
         <v>3214</v>
       </c>
@@ -3870,7 +3918,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2">
       <c r="A214" s="3">
         <v>322</v>
       </c>
@@ -3878,7 +3926,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2">
       <c r="A215" s="3">
         <v>3221</v>
       </c>
@@ -3886,7 +3934,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2">
       <c r="A216" s="3">
         <v>3222</v>
       </c>
@@ -3894,7 +3942,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2">
       <c r="A217" s="3">
         <v>323</v>
       </c>
@@ -3902,7 +3950,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2">
       <c r="A218" s="3">
         <v>3230</v>
       </c>
@@ -3910,7 +3958,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2">
       <c r="A219" s="3">
         <v>324</v>
       </c>
@@ -3918,7 +3966,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2">
       <c r="A220" s="3">
         <v>3240</v>
       </c>
@@ -3926,7 +3974,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2">
       <c r="A221" s="3">
         <v>325</v>
       </c>
@@ -3934,7 +3982,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2">
       <c r="A222" s="3">
         <v>3251</v>
       </c>
@@ -3942,7 +3990,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2">
       <c r="A223" s="3">
         <v>3252</v>
       </c>
@@ -3950,7 +3998,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2">
       <c r="A224" s="3">
         <v>3253</v>
       </c>
@@ -3958,7 +4006,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2">
       <c r="A225" s="3">
         <v>3254</v>
       </c>
@@ -3966,7 +4014,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2">
       <c r="A226" s="3">
         <v>3255</v>
       </c>
@@ -3974,7 +4022,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2">
       <c r="A227" s="3">
         <v>3256</v>
       </c>
@@ -3982,7 +4030,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2">
       <c r="A228" s="3">
         <v>3257</v>
       </c>
@@ -3990,7 +4038,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2">
       <c r="A229" s="3">
         <v>3258</v>
       </c>
@@ -3998,7 +4046,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2">
       <c r="A230" s="3">
         <v>3259</v>
       </c>
@@ -4006,7 +4054,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" ht="15">
       <c r="A231" s="2">
         <v>33</v>
       </c>
@@ -4014,7 +4062,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2">
       <c r="A232" s="3">
         <v>331</v>
       </c>
@@ -4022,7 +4070,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2">
       <c r="A233" s="3">
         <v>3311</v>
       </c>
@@ -4030,7 +4078,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2">
       <c r="A234" s="3">
         <v>3312</v>
       </c>
@@ -4038,7 +4086,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2">
       <c r="A235" s="3">
         <v>3313</v>
       </c>
@@ -4046,7 +4094,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2">
       <c r="A236" s="3">
         <v>3314</v>
       </c>
@@ -4054,7 +4102,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2">
       <c r="A237" s="3">
         <v>3315</v>
       </c>
@@ -4062,7 +4110,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2">
       <c r="A238" s="3">
         <v>332</v>
       </c>
@@ -4070,7 +4118,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2">
       <c r="A239" s="3">
         <v>3321</v>
       </c>
@@ -4078,7 +4126,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2">
       <c r="A240" s="3">
         <v>3322</v>
       </c>
@@ -4086,7 +4134,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2">
       <c r="A241" s="3">
         <v>3323</v>
       </c>
@@ -4094,7 +4142,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2">
       <c r="A242" s="3">
         <v>3324</v>
       </c>
@@ -4102,7 +4150,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2">
       <c r="A243" s="3">
         <v>333</v>
       </c>
@@ -4110,7 +4158,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2">
       <c r="A244" s="3">
         <v>3331</v>
       </c>
@@ -4118,7 +4166,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2">
       <c r="A245" s="3">
         <v>3332</v>
       </c>
@@ -4126,7 +4174,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2">
       <c r="A246" s="3">
         <v>3333</v>
       </c>
@@ -4134,7 +4182,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2">
       <c r="A247" s="3">
         <v>3334</v>
       </c>
@@ -4142,7 +4190,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2">
       <c r="A248" s="3">
         <v>3339</v>
       </c>
@@ -4150,7 +4198,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2">
       <c r="A249" s="3">
         <v>334</v>
       </c>
@@ -4158,7 +4206,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2">
       <c r="A250" s="3">
         <v>3341</v>
       </c>
@@ -4166,7 +4214,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2">
       <c r="A251" s="3">
         <v>3342</v>
       </c>
@@ -4174,7 +4222,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2">
       <c r="A252" s="3">
         <v>3343</v>
       </c>
@@ -4182,7 +4230,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2">
       <c r="A253" s="3">
         <v>3344</v>
       </c>
@@ -4190,7 +4238,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2">
       <c r="A254" s="3">
         <v>335</v>
       </c>
@@ -4198,7 +4246,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2">
       <c r="A255" s="3">
         <v>3351</v>
       </c>
@@ -4206,7 +4254,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2">
       <c r="A256" s="3">
         <v>3352</v>
       </c>
@@ -4214,7 +4262,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2">
       <c r="A257" s="3">
         <v>3353</v>
       </c>
@@ -4222,7 +4270,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2">
       <c r="A258" s="3">
         <v>3354</v>
       </c>
@@ -4230,7 +4278,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2">
       <c r="A259" s="3">
         <v>3355</v>
       </c>
@@ -4238,7 +4286,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2">
       <c r="A260" s="3">
         <v>3359</v>
       </c>
@@ -4246,7 +4294,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" ht="15">
       <c r="A261" s="2">
         <v>34</v>
       </c>
@@ -4254,7 +4302,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2">
       <c r="A262" s="3">
         <v>341</v>
       </c>
@@ -4262,7 +4310,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2">
       <c r="A263" s="3">
         <v>3411</v>
       </c>
@@ -4270,7 +4318,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2">
       <c r="A264" s="3">
         <v>3412</v>
       </c>
@@ -4278,7 +4326,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2">
       <c r="A265" s="3">
         <v>3413</v>
       </c>
@@ -4286,7 +4334,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2">
       <c r="A266" s="3">
         <v>342</v>
       </c>
@@ -4294,7 +4342,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2">
       <c r="A267" s="3">
         <v>3421</v>
       </c>
@@ -4302,7 +4350,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2">
       <c r="A268" s="3">
         <v>3422</v>
       </c>
@@ -4310,7 +4358,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2">
       <c r="A269" s="3">
         <v>3423</v>
       </c>
@@ -4318,7 +4366,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2">
       <c r="A270" s="3">
         <v>343</v>
       </c>
@@ -4326,7 +4374,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2">
       <c r="A271" s="3">
         <v>3431</v>
       </c>
@@ -4334,7 +4382,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2">
       <c r="A272" s="3">
         <v>3432</v>
       </c>
@@ -4342,7 +4390,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2">
       <c r="A273" s="3">
         <v>3433</v>
       </c>
@@ -4350,7 +4398,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2">
       <c r="A274" s="3">
         <v>3434</v>
       </c>
@@ -4358,7 +4406,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2">
       <c r="A275" s="3">
         <v>3435</v>
       </c>
@@ -4366,7 +4414,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" ht="15">
       <c r="A276" s="2">
         <v>35</v>
       </c>
@@ -4374,7 +4422,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2">
       <c r="A277" s="3">
         <v>351</v>
       </c>
@@ -4382,7 +4430,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2">
       <c r="A278" s="3">
         <v>3511</v>
       </c>
@@ -4390,7 +4438,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2">
       <c r="A279" s="3">
         <v>3512</v>
       </c>
@@ -4398,7 +4446,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2">
       <c r="A280" s="3">
         <v>3513</v>
       </c>
@@ -4406,7 +4454,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2">
       <c r="A281" s="3">
         <v>3514</v>
       </c>
@@ -4414,7 +4462,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2">
       <c r="A282" s="3">
         <v>352</v>
       </c>
@@ -4422,7 +4470,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2">
       <c r="A283" s="3">
         <v>3521</v>
       </c>
@@ -4430,7 +4478,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2">
       <c r="A284" s="3">
         <v>3522</v>
       </c>
@@ -4438,7 +4486,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" ht="15.75">
       <c r="A285" s="1">
         <v>4</v>
       </c>
@@ -4446,7 +4494,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" ht="15">
       <c r="A286" s="2">
         <v>41</v>
       </c>
@@ -4454,7 +4502,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2">
       <c r="A287" s="3">
         <v>411</v>
       </c>
@@ -4462,7 +4510,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2">
       <c r="A288" s="3">
         <v>4110</v>
       </c>
@@ -4470,7 +4518,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2">
       <c r="A289" s="3">
         <v>412</v>
       </c>
@@ -4478,7 +4526,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2">
       <c r="A290" s="3">
         <v>4120</v>
       </c>
@@ -4486,7 +4534,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2">
       <c r="A291" s="3">
         <v>413</v>
       </c>
@@ -4494,7 +4542,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2">
       <c r="A292" s="3">
         <v>4131</v>
       </c>
@@ -4502,7 +4550,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2">
       <c r="A293" s="3">
         <v>4132</v>
       </c>
@@ -4510,7 +4558,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="15">
       <c r="A294" s="2">
         <v>42</v>
       </c>
@@ -4518,7 +4566,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2">
       <c r="A295" s="3">
         <v>421</v>
       </c>
@@ -4526,7 +4574,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2">
       <c r="A296" s="3">
         <v>4211</v>
       </c>
@@ -4534,7 +4582,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2">
       <c r="A297" s="3">
         <v>4212</v>
       </c>
@@ -4542,7 +4590,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2">
       <c r="A298" s="3">
         <v>4213</v>
       </c>
@@ -4550,7 +4598,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2">
       <c r="A299" s="3">
         <v>4214</v>
       </c>
@@ -4558,7 +4606,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2">
       <c r="A300" s="3">
         <v>422</v>
       </c>
@@ -4566,7 +4614,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2">
       <c r="A301" s="3">
         <v>4221</v>
       </c>
@@ -4574,7 +4622,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2">
       <c r="A302" s="3">
         <v>4222</v>
       </c>
@@ -4582,7 +4630,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2">
       <c r="A303" s="3">
         <v>4223</v>
       </c>
@@ -4590,7 +4638,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2">
       <c r="A304" s="3">
         <v>4224</v>
       </c>
@@ -4598,7 +4646,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2">
       <c r="A305" s="3">
         <v>4225</v>
       </c>
@@ -4606,7 +4654,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2">
       <c r="A306" s="3">
         <v>4226</v>
       </c>
@@ -4614,7 +4662,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2">
       <c r="A307" s="3">
         <v>4227</v>
       </c>
@@ -4622,7 +4670,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2">
       <c r="A308" s="3">
         <v>4229</v>
       </c>
@@ -4630,7 +4678,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" ht="15">
       <c r="A309" s="2">
         <v>43</v>
       </c>
@@ -4638,7 +4686,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2">
       <c r="A310" s="3">
         <v>431</v>
       </c>
@@ -4646,7 +4694,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2">
       <c r="A311" s="3">
         <v>4311</v>
       </c>
@@ -4654,7 +4702,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2">
       <c r="A312" s="3">
         <v>4312</v>
       </c>
@@ -4662,7 +4710,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2">
       <c r="A313" s="3">
         <v>4313</v>
       </c>
@@ -4670,7 +4718,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2">
       <c r="A314" s="3">
         <v>432</v>
       </c>
@@ -4678,7 +4726,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2">
       <c r="A315" s="3">
         <v>4321</v>
       </c>
@@ -4686,7 +4734,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2">
       <c r="A316" s="3">
         <v>4322</v>
       </c>
@@ -4694,7 +4742,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2">
       <c r="A317" s="3">
         <v>4323</v>
       </c>
@@ -4702,7 +4750,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" ht="15">
       <c r="A318" s="2">
         <v>44</v>
       </c>
@@ -4710,7 +4758,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2">
       <c r="A319" s="3">
         <v>441</v>
       </c>
@@ -4718,7 +4766,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2">
       <c r="A320" s="3">
         <v>4411</v>
       </c>
@@ -4726,7 +4774,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2">
       <c r="A321" s="3">
         <v>4412</v>
       </c>
@@ -4734,7 +4782,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2">
       <c r="A322" s="3">
         <v>4413</v>
       </c>
@@ -4742,7 +4790,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2">
       <c r="A323" s="3">
         <v>4414</v>
       </c>
@@ -4750,7 +4798,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2">
       <c r="A324" s="3">
         <v>4415</v>
       </c>
@@ -4758,7 +4806,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2">
       <c r="A325" s="3">
         <v>4416</v>
       </c>
@@ -4766,7 +4814,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2">
       <c r="A326" s="3">
         <v>4419</v>
       </c>
@@ -4774,7 +4822,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" ht="15.75">
       <c r="A327" s="1">
         <v>5</v>
       </c>
@@ -4782,7 +4830,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" ht="15">
       <c r="A328" s="2">
         <v>51</v>
       </c>
@@ -4790,7 +4838,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2">
       <c r="A329" s="3">
         <v>511</v>
       </c>
@@ -4798,7 +4846,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2">
       <c r="A330" s="3">
         <v>5111</v>
       </c>
@@ -4806,7 +4854,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2">
       <c r="A331" s="3">
         <v>5112</v>
       </c>
@@ -4814,7 +4862,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2">
       <c r="A332" s="3">
         <v>5113</v>
       </c>
@@ -4822,7 +4870,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2">
       <c r="A333" s="3">
         <v>512</v>
       </c>
@@ -4830,12 +4878,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2">
       <c r="A334" s="3">
         <v>5120</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2">
       <c r="A335" s="3">
         <v>513</v>
       </c>
@@ -4843,7 +4891,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2">
       <c r="A336" s="3">
         <v>5131</v>
       </c>
@@ -4851,7 +4899,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2">
       <c r="A337" s="3">
         <v>5132</v>
       </c>
@@ -4859,7 +4907,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2">
       <c r="A338" s="3">
         <v>514</v>
       </c>
@@ -4867,7 +4915,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2">
       <c r="A339" s="3">
         <v>5141</v>
       </c>
@@ -4875,7 +4923,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2">
       <c r="A340" s="3">
         <v>5142</v>
       </c>
@@ -4883,7 +4931,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2">
       <c r="A341" s="3">
         <v>515</v>
       </c>
@@ -4891,7 +4939,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2">
       <c r="A342" s="3">
         <v>5151</v>
       </c>
@@ -4899,7 +4947,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2">
       <c r="A343" s="3">
         <v>5152</v>
       </c>
@@ -4907,7 +4955,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2">
       <c r="A344" s="3">
         <v>5153</v>
       </c>
@@ -4915,7 +4963,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2">
       <c r="A345" s="3">
         <v>516</v>
       </c>
@@ -4923,7 +4971,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2">
       <c r="A346" s="3">
         <v>5161</v>
       </c>
@@ -4931,7 +4979,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2">
       <c r="A347" s="3">
         <v>5162</v>
       </c>
@@ -4939,7 +4987,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2">
       <c r="A348" s="3">
         <v>5163</v>
       </c>
@@ -4947,7 +4995,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2">
       <c r="A349" s="3">
         <v>5164</v>
       </c>
@@ -4955,7 +5003,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2">
       <c r="A350" s="3">
         <v>5165</v>
       </c>
@@ -4963,7 +5011,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2">
       <c r="A351" s="3">
         <v>5169</v>
       </c>
@@ -4971,7 +5019,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" ht="15">
       <c r="A352" s="2">
         <v>52</v>
       </c>
@@ -4979,7 +5027,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2">
       <c r="A353" s="3">
         <v>521</v>
       </c>
@@ -4987,7 +5035,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2">
       <c r="A354" s="3">
         <v>5211</v>
       </c>
@@ -4995,7 +5043,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2">
       <c r="A355" s="3">
         <v>5212</v>
       </c>
@@ -5003,7 +5051,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2">
       <c r="A356" s="3">
         <v>522</v>
       </c>
@@ -5011,7 +5059,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2">
       <c r="A357" s="3">
         <v>5221</v>
       </c>
@@ -5019,7 +5067,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2">
       <c r="A358" s="3">
         <v>5222</v>
       </c>
@@ -5027,7 +5075,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2">
       <c r="A359" s="3">
         <v>5223</v>
       </c>
@@ -5035,7 +5083,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2">
       <c r="A360" s="3">
         <v>523</v>
       </c>
@@ -5043,7 +5091,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2">
       <c r="A361" s="3">
         <v>5230</v>
       </c>
@@ -5051,7 +5099,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2">
       <c r="A362" s="3">
         <v>524</v>
       </c>
@@ -5059,7 +5107,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2">
       <c r="A363" s="3">
         <v>5241</v>
       </c>
@@ -5067,7 +5115,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2">
       <c r="A364" s="3">
         <v>5242</v>
       </c>
@@ -5075,7 +5123,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2">
       <c r="A365" s="3">
         <v>5243</v>
       </c>
@@ -5083,7 +5131,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2">
       <c r="A366" s="3">
         <v>5244</v>
       </c>
@@ -5091,7 +5139,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2">
       <c r="A367" s="3">
         <v>5245</v>
       </c>
@@ -5099,7 +5147,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2">
       <c r="A368" s="3">
         <v>5246</v>
       </c>
@@ -5107,7 +5155,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2">
       <c r="A369" s="3">
         <v>5249</v>
       </c>
@@ -5115,7 +5163,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" ht="15">
       <c r="A370" s="2">
         <v>53</v>
       </c>
@@ -5123,7 +5171,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2">
       <c r="A371" s="3">
         <v>531</v>
       </c>
@@ -5131,7 +5179,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2">
       <c r="A372" s="3">
         <v>5311</v>
       </c>
@@ -5139,7 +5187,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2">
       <c r="A373" s="3">
         <v>5312</v>
       </c>
@@ -5147,7 +5195,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2">
       <c r="A374" s="3">
         <v>532</v>
       </c>
@@ -5155,7 +5203,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2">
       <c r="A375" s="3">
         <v>5321</v>
       </c>
@@ -5163,7 +5211,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2">
       <c r="A376" s="3">
         <v>5322</v>
       </c>
@@ -5171,7 +5219,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2">
       <c r="A377" s="3">
         <v>5329</v>
       </c>
@@ -5179,7 +5227,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" ht="15">
       <c r="A378" s="2">
         <v>54</v>
       </c>
@@ -5187,7 +5235,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2">
       <c r="A379" s="3">
         <v>541</v>
       </c>
@@ -5195,7 +5243,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2">
       <c r="A380" s="3">
         <v>5411</v>
       </c>
@@ -5203,7 +5251,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2">
       <c r="A381" s="3">
         <v>5412</v>
       </c>
@@ -5211,7 +5259,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2">
       <c r="A382" s="3">
         <v>5413</v>
       </c>
@@ -5219,7 +5267,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2">
       <c r="A383" s="3">
         <v>5414</v>
       </c>
@@ -5227,7 +5275,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2">
       <c r="A384" s="3">
         <v>5419</v>
       </c>
@@ -5235,7 +5283,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" ht="15.75">
       <c r="A385" s="1">
         <v>6</v>
       </c>
@@ -5243,7 +5291,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" ht="15">
       <c r="A386" s="2">
         <v>61</v>
       </c>
@@ -5251,7 +5299,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2">
       <c r="A387" s="3">
         <v>611</v>
       </c>
@@ -5259,7 +5307,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2">
       <c r="A388" s="3">
         <v>6111</v>
       </c>
@@ -5267,7 +5315,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2">
       <c r="A389" s="3">
         <v>6112</v>
       </c>
@@ -5275,7 +5323,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2">
       <c r="A390" s="3">
         <v>6113</v>
       </c>
@@ -5283,7 +5331,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2">
       <c r="A391" s="3">
         <v>6114</v>
       </c>
@@ -5291,7 +5339,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2">
       <c r="A392" s="3">
         <v>612</v>
       </c>
@@ -5299,7 +5347,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2">
       <c r="A393" s="3">
         <v>6121</v>
       </c>
@@ -5307,7 +5355,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2">
       <c r="A394" s="3">
         <v>6122</v>
       </c>
@@ -5315,7 +5363,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2">
       <c r="A395" s="3">
         <v>6123</v>
       </c>
@@ -5323,7 +5371,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2">
       <c r="A396" s="3">
         <v>6129</v>
       </c>
@@ -5331,7 +5379,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2">
       <c r="A397" s="3">
         <v>613</v>
       </c>
@@ -5339,7 +5387,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2">
       <c r="A398" s="3">
         <v>6130</v>
       </c>
@@ -5347,7 +5395,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" ht="15">
       <c r="A399" s="2">
         <v>62</v>
       </c>
@@ -5355,7 +5403,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2">
       <c r="A400" s="3">
         <v>621</v>
       </c>
@@ -5363,7 +5411,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2">
       <c r="A401" s="3">
         <v>6210</v>
       </c>
@@ -5371,7 +5419,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2">
       <c r="A402" s="3">
         <v>622</v>
       </c>
@@ -5379,7 +5427,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2">
       <c r="A403" s="3">
         <v>6221</v>
       </c>
@@ -5387,7 +5435,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2">
       <c r="A404" s="3">
         <v>6222</v>
       </c>
@@ -5395,7 +5443,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2">
       <c r="A405" s="3">
         <v>6223</v>
       </c>
@@ -5403,7 +5451,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2">
       <c r="A406" s="3">
         <v>6224</v>
       </c>
@@ -5411,7 +5459,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" ht="15">
       <c r="A407" s="2">
         <v>63</v>
       </c>
@@ -5419,7 +5467,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2">
       <c r="A408" s="3">
         <v>631</v>
       </c>
@@ -5427,7 +5475,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2">
       <c r="A409" s="3">
         <v>6310</v>
       </c>
@@ -5435,7 +5483,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2">
       <c r="A410" s="3">
         <v>632</v>
       </c>
@@ -5443,7 +5491,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2">
       <c r="A411" s="3">
         <v>6320</v>
       </c>
@@ -5451,7 +5499,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2">
       <c r="A412" s="3">
         <v>633</v>
       </c>
@@ -5459,7 +5507,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2">
       <c r="A413" s="3">
         <v>6330</v>
       </c>
@@ -5467,7 +5515,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2">
       <c r="A414" s="3">
         <v>634</v>
       </c>
@@ -5475,7 +5523,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2">
       <c r="A415" s="3">
         <v>6340</v>
       </c>
@@ -5483,7 +5531,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" ht="15.75">
       <c r="A416" s="1">
         <v>7</v>
       </c>
@@ -5491,7 +5539,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" ht="15">
       <c r="A417" s="2">
         <v>71</v>
       </c>
@@ -5499,7 +5547,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2">
       <c r="A418" s="3">
         <v>711</v>
       </c>
@@ -5507,7 +5555,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2">
       <c r="A419" s="3">
         <v>7111</v>
       </c>
@@ -5515,7 +5563,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2">
       <c r="A420" s="3">
         <v>7112</v>
       </c>
@@ -5523,7 +5571,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2">
       <c r="A421" s="3">
         <v>7113</v>
       </c>
@@ -5531,7 +5579,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2">
       <c r="A422" s="3">
         <v>7114</v>
       </c>
@@ -5539,7 +5587,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2">
       <c r="A423" s="3">
         <v>7115</v>
       </c>
@@ -5547,7 +5595,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2">
       <c r="A424" s="3">
         <v>7119</v>
       </c>
@@ -5555,7 +5603,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2">
       <c r="A425" s="3">
         <v>712</v>
       </c>
@@ -5563,7 +5611,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2">
       <c r="A426" s="3">
         <v>7121</v>
       </c>
@@ -5571,7 +5619,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2">
       <c r="A427" s="3">
         <v>7122</v>
       </c>
@@ -5579,7 +5627,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2">
       <c r="A428" s="3">
         <v>7123</v>
       </c>
@@ -5587,7 +5635,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2">
       <c r="A429" s="3">
         <v>7124</v>
       </c>
@@ -5595,7 +5643,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2">
       <c r="A430" s="3">
         <v>7125</v>
       </c>
@@ -5603,7 +5651,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2">
       <c r="A431" s="3">
         <v>7126</v>
       </c>
@@ -5611,7 +5659,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2">
       <c r="A432" s="3">
         <v>7127</v>
       </c>
@@ -5619,7 +5667,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2">
       <c r="A433" s="3">
         <v>713</v>
       </c>
@@ -5627,7 +5675,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2">
       <c r="A434" s="3">
         <v>7131</v>
       </c>
@@ -5635,7 +5683,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2">
       <c r="A435" s="3">
         <v>7132</v>
       </c>
@@ -5643,7 +5691,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2">
       <c r="A436" s="3">
         <v>7133</v>
       </c>
@@ -5651,7 +5699,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" ht="15">
       <c r="A437" s="2">
         <v>72</v>
       </c>
@@ -5659,7 +5707,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2">
       <c r="A438" s="3">
         <v>721</v>
       </c>
@@ -5667,7 +5715,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2">
       <c r="A439" s="3">
         <v>7211</v>
       </c>
@@ -5675,7 +5723,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2">
       <c r="A440" s="3">
         <v>7212</v>
       </c>
@@ -5683,7 +5731,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2">
       <c r="A441" s="3">
         <v>7213</v>
       </c>
@@ -5691,7 +5739,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2">
       <c r="A442" s="3">
         <v>7214</v>
       </c>
@@ -5699,7 +5747,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2">
       <c r="A443" s="3">
         <v>7215</v>
       </c>
@@ -5707,7 +5755,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2">
       <c r="A444" s="3">
         <v>722</v>
       </c>
@@ -5715,7 +5763,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2">
       <c r="A445" s="3">
         <v>7221</v>
       </c>
@@ -5723,7 +5771,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2">
       <c r="A446" s="3">
         <v>7222</v>
       </c>
@@ -5731,7 +5779,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2">
       <c r="A447" s="3">
         <v>7223</v>
       </c>
@@ -5739,7 +5787,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2">
       <c r="A448" s="3">
         <v>7224</v>
       </c>
@@ -5747,7 +5795,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2">
       <c r="A449" s="3">
         <v>723</v>
       </c>
@@ -5755,7 +5803,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2">
       <c r="A450" s="3">
         <v>7231</v>
       </c>
@@ -5763,7 +5811,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2">
       <c r="A451" s="3">
         <v>7232</v>
       </c>
@@ -5771,7 +5819,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2">
       <c r="A452" s="3">
         <v>7233</v>
       </c>
@@ -5779,7 +5827,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2">
       <c r="A453" s="3">
         <v>7234</v>
       </c>
@@ -5787,7 +5835,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" ht="15">
       <c r="A454" s="2">
         <v>73</v>
       </c>
@@ -5795,7 +5843,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2">
       <c r="A455" s="3">
         <v>731</v>
       </c>
@@ -5803,7 +5851,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2">
       <c r="A456" s="3">
         <v>7311</v>
       </c>
@@ -5811,7 +5859,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2">
       <c r="A457" s="3">
         <v>7312</v>
       </c>
@@ -5819,7 +5867,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2">
       <c r="A458" s="3">
         <v>7313</v>
       </c>
@@ -5827,7 +5875,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2">
       <c r="A459" s="3">
         <v>7314</v>
       </c>
@@ -5835,7 +5883,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2">
       <c r="A460" s="3">
         <v>7315</v>
       </c>
@@ -5843,7 +5891,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2">
       <c r="A461" s="3">
         <v>7316</v>
       </c>
@@ -5851,7 +5899,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2">
       <c r="A462" s="3">
         <v>7317</v>
       </c>
@@ -5859,7 +5907,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2">
       <c r="A463" s="3">
         <v>7318</v>
       </c>
@@ -5867,7 +5915,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2">
       <c r="A464" s="3">
         <v>7319</v>
       </c>
@@ -5875,7 +5923,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2">
       <c r="A465" s="3">
         <v>732</v>
       </c>
@@ -5883,7 +5931,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2">
       <c r="A466" s="3">
         <v>7321</v>
       </c>
@@ -5891,7 +5939,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2">
       <c r="A467" s="3">
         <v>7322</v>
       </c>
@@ -5899,7 +5947,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2">
       <c r="A468" s="3">
         <v>7323</v>
       </c>
@@ -5907,7 +5955,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" ht="15">
       <c r="A469" s="2">
         <v>74</v>
       </c>
@@ -5915,7 +5963,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2">
       <c r="A470" s="3">
         <v>741</v>
       </c>
@@ -5923,7 +5971,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2">
       <c r="A471" s="3">
         <v>7411</v>
       </c>
@@ -5931,7 +5979,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2">
       <c r="A472" s="3">
         <v>7412</v>
       </c>
@@ -5939,7 +5987,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2">
       <c r="A473" s="3">
         <v>7413</v>
       </c>
@@ -5947,7 +5995,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2">
       <c r="A474" s="3">
         <v>742</v>
       </c>
@@ -5955,7 +6003,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2">
       <c r="A475" s="3">
         <v>7421</v>
       </c>
@@ -5963,7 +6011,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2">
       <c r="A476" s="3">
         <v>7422</v>
       </c>
@@ -5971,7 +6019,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" ht="15">
       <c r="A477" s="2">
         <v>75</v>
       </c>
@@ -5979,7 +6027,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2">
       <c r="A478" s="3">
         <v>751</v>
       </c>
@@ -5987,7 +6035,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2">
       <c r="A479" s="3">
         <v>7511</v>
       </c>
@@ -5995,7 +6043,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2">
       <c r="A480" s="3">
         <v>7512</v>
       </c>
@@ -6003,7 +6051,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2">
       <c r="A481" s="3">
         <v>7513</v>
       </c>
@@ -6011,7 +6059,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2">
       <c r="A482" s="3">
         <v>7514</v>
       </c>
@@ -6019,7 +6067,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2">
       <c r="A483" s="3">
         <v>7515</v>
       </c>
@@ -6027,7 +6075,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2">
       <c r="A484" s="3">
         <v>7516</v>
       </c>
@@ -6035,7 +6083,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2">
       <c r="A485" s="3">
         <v>752</v>
       </c>
@@ -6043,7 +6091,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2">
       <c r="A486" s="3">
         <v>7521</v>
       </c>
@@ -6051,7 +6099,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2">
       <c r="A487" s="3">
         <v>7522</v>
       </c>
@@ -6059,7 +6107,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2">
       <c r="A488" s="3">
         <v>7523</v>
       </c>
@@ -6067,7 +6115,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2">
       <c r="A489" s="3">
         <v>753</v>
       </c>
@@ -6075,7 +6123,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2">
       <c r="A490" s="3">
         <v>7531</v>
       </c>
@@ -6083,7 +6131,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2">
       <c r="A491" s="3">
         <v>7532</v>
       </c>
@@ -6091,7 +6139,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2">
       <c r="A492" s="3">
         <v>7533</v>
       </c>
@@ -6099,7 +6147,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2">
       <c r="A493" s="3">
         <v>7534</v>
       </c>
@@ -6107,7 +6155,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2">
       <c r="A494" s="3">
         <v>7535</v>
       </c>
@@ -6115,7 +6163,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2">
       <c r="A495" s="3">
         <v>7536</v>
       </c>
@@ -6123,7 +6171,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2">
       <c r="A496" s="3">
         <v>754</v>
       </c>
@@ -6131,7 +6179,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2">
       <c r="A497" s="3">
         <v>7541</v>
       </c>
@@ -6139,7 +6187,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2">
       <c r="A498" s="3">
         <v>7542</v>
       </c>
@@ -6147,7 +6195,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2">
       <c r="A499" s="3">
         <v>7543</v>
       </c>
@@ -6155,7 +6203,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2">
       <c r="A500" s="3">
         <v>7544</v>
       </c>
@@ -6163,7 +6211,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" ht="39" customHeight="1">
       <c r="A501" s="3">
         <v>7549</v>
       </c>
@@ -6171,7 +6219,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" ht="15.75">
       <c r="A502" s="1">
         <v>8</v>
       </c>
@@ -6179,7 +6227,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" ht="15">
       <c r="A503" s="2">
         <v>81</v>
       </c>
@@ -6187,7 +6235,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2">
       <c r="A504" s="3">
         <v>811</v>
       </c>
@@ -6195,7 +6243,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2">
       <c r="A505" s="3">
         <v>8111</v>
       </c>
@@ -6203,7 +6251,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2">
       <c r="A506" s="3">
         <v>8112</v>
       </c>
@@ -6211,7 +6259,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2">
       <c r="A507" s="3">
         <v>8113</v>
       </c>
@@ -6219,7 +6267,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="508" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2">
       <c r="A508" s="3">
         <v>8114</v>
       </c>
@@ -6227,7 +6275,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2">
       <c r="A509" s="3">
         <v>812</v>
       </c>
@@ -6235,7 +6283,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2">
       <c r="A510" s="3">
         <v>8121</v>
       </c>
@@ -6243,7 +6291,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2">
       <c r="A511" s="3">
         <v>8122</v>
       </c>
@@ -6251,7 +6299,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2">
       <c r="A512" s="3">
         <v>813</v>
       </c>
@@ -6259,7 +6307,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2">
       <c r="A513" s="3">
         <v>8131</v>
       </c>
@@ -6267,7 +6315,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2">
       <c r="A514" s="3">
         <v>8132</v>
       </c>
@@ -6275,7 +6323,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2">
       <c r="A515" s="3">
         <v>814</v>
       </c>
@@ -6283,7 +6331,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2">
       <c r="A516" s="3">
         <v>8141</v>
       </c>
@@ -6291,7 +6339,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2">
       <c r="A517" s="3">
         <v>8142</v>
       </c>
@@ -6299,7 +6347,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2">
       <c r="A518" s="3">
         <v>8143</v>
       </c>
@@ -6307,7 +6355,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2">
       <c r="A519" s="3">
         <v>815</v>
       </c>
@@ -6315,7 +6363,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2">
       <c r="A520" s="3">
         <v>8151</v>
       </c>
@@ -6323,7 +6371,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2">
       <c r="A521" s="3">
         <v>8152</v>
       </c>
@@ -6331,7 +6379,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2">
       <c r="A522" s="3">
         <v>8153</v>
       </c>
@@ -6339,7 +6387,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2">
       <c r="A523" s="3">
         <v>8154</v>
       </c>
@@ -6347,7 +6395,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2">
       <c r="A524" s="3">
         <v>8155</v>
       </c>
@@ -6355,7 +6403,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2">
       <c r="A525" s="3">
         <v>8156</v>
       </c>
@@ -6363,7 +6411,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2">
       <c r="A526" s="3">
         <v>8157</v>
       </c>
@@ -6371,7 +6419,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2">
       <c r="A527" s="3">
         <v>8159</v>
       </c>
@@ -6379,7 +6427,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2">
       <c r="A528" s="3">
         <v>816</v>
       </c>
@@ -6387,7 +6435,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2">
       <c r="A529" s="3">
         <v>8160</v>
       </c>
@@ -6395,7 +6443,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2">
       <c r="A530" s="3">
         <v>817</v>
       </c>
@@ -6403,7 +6451,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2">
       <c r="A531" s="3">
         <v>8171</v>
       </c>
@@ -6411,7 +6459,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2">
       <c r="A532" s="3">
         <v>8172</v>
       </c>
@@ -6419,7 +6467,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2">
       <c r="A533" s="3">
         <v>818</v>
       </c>
@@ -6427,7 +6475,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2">
       <c r="A534" s="3">
         <v>8181</v>
       </c>
@@ -6435,7 +6483,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2">
       <c r="A535" s="3">
         <v>8182</v>
       </c>
@@ -6443,7 +6491,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2">
       <c r="A536" s="3">
         <v>8183</v>
       </c>
@@ -6451,7 +6499,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2">
       <c r="A537" s="3">
         <v>8189</v>
       </c>
@@ -6459,7 +6507,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" ht="15">
       <c r="A538" s="2">
         <v>82</v>
       </c>
@@ -6467,7 +6515,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2">
       <c r="A539" s="3">
         <v>821</v>
       </c>
@@ -6475,7 +6523,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2">
       <c r="A540" s="3">
         <v>8211</v>
       </c>
@@ -6483,7 +6531,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2">
       <c r="A541" s="3">
         <v>8212</v>
       </c>
@@ -6491,7 +6539,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2">
       <c r="A542" s="3">
         <v>8219</v>
       </c>
@@ -6499,7 +6547,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2" ht="15">
       <c r="A543" s="2">
         <v>83</v>
       </c>
@@ -6507,7 +6555,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2">
       <c r="A544" s="3">
         <v>831</v>
       </c>
@@ -6515,7 +6563,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2">
       <c r="A545" s="3">
         <v>8311</v>
       </c>
@@ -6523,7 +6571,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2">
       <c r="A546" s="3">
         <v>8312</v>
       </c>
@@ -6531,7 +6579,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2">
       <c r="A547" s="3">
         <v>832</v>
       </c>
@@ -6539,7 +6587,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2">
       <c r="A548" s="3">
         <v>8321</v>
       </c>
@@ -6547,7 +6595,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2">
       <c r="A549" s="3">
         <v>8322</v>
       </c>
@@ -6555,7 +6603,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2">
       <c r="A550" s="3">
         <v>833</v>
       </c>
@@ -6563,7 +6611,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2">
       <c r="A551" s="3">
         <v>8331</v>
       </c>
@@ -6571,7 +6619,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2">
       <c r="A552" s="3">
         <v>8332</v>
       </c>
@@ -6579,7 +6627,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2">
       <c r="A553" s="3">
         <v>834</v>
       </c>
@@ -6587,7 +6635,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2">
       <c r="A554" s="3">
         <v>8341</v>
       </c>
@@ -6595,7 +6643,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2">
       <c r="A555" s="3">
         <v>8342</v>
       </c>
@@ -6603,7 +6651,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2">
       <c r="A556" s="3">
         <v>8343</v>
       </c>
@@ -6611,7 +6659,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2">
       <c r="A557" s="3">
         <v>8344</v>
       </c>
@@ -6619,7 +6667,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2">
       <c r="A558" s="3">
         <v>835</v>
       </c>
@@ -6627,7 +6675,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2">
       <c r="A559" s="3">
         <v>8350</v>
       </c>
@@ -6635,7 +6683,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2" ht="15.75">
       <c r="A560" s="1">
         <v>9</v>
       </c>
@@ -6643,7 +6691,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" ht="15">
       <c r="A561" s="2">
         <v>91</v>
       </c>
@@ -6651,7 +6699,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2">
       <c r="A562" s="3">
         <v>911</v>
       </c>
@@ -6659,7 +6707,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2">
       <c r="A563" s="3">
         <v>9111</v>
       </c>
@@ -6667,7 +6715,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="564" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2">
       <c r="A564" s="3">
         <v>9112</v>
       </c>
@@ -6675,7 +6723,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2">
       <c r="A565" s="3">
         <v>912</v>
       </c>
@@ -6683,7 +6731,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2">
       <c r="A566" s="3">
         <v>9121</v>
       </c>
@@ -6691,7 +6739,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2">
       <c r="A567" s="3">
         <v>9122</v>
       </c>
@@ -6699,7 +6747,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2">
       <c r="A568" s="3">
         <v>9123</v>
       </c>
@@ -6707,7 +6755,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2">
       <c r="A569" s="3">
         <v>9129</v>
       </c>
@@ -6715,7 +6763,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" ht="15">
       <c r="A570" s="2">
         <v>92</v>
       </c>
@@ -6723,7 +6771,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2">
       <c r="A571" s="3">
         <v>921</v>
       </c>
@@ -6731,7 +6779,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2">
       <c r="A572" s="3">
         <v>9211</v>
       </c>
@@ -6739,7 +6787,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2">
       <c r="A573" s="3">
         <v>9212</v>
       </c>
@@ -6747,7 +6795,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:2">
       <c r="A574" s="3">
         <v>9213</v>
       </c>
@@ -6755,7 +6803,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2">
       <c r="A575" s="3">
         <v>9214</v>
       </c>
@@ -6763,7 +6811,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2">
       <c r="A576" s="3">
         <v>9215</v>
       </c>
@@ -6771,7 +6819,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2">
       <c r="A577" s="3">
         <v>9216</v>
       </c>
@@ -6779,7 +6827,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" ht="15">
       <c r="A578" s="2">
         <v>93</v>
       </c>
@@ -6787,7 +6835,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2">
       <c r="A579" s="3">
         <v>931</v>
       </c>
@@ -6795,7 +6843,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2">
       <c r="A580" s="3">
         <v>9311</v>
       </c>
@@ -6803,7 +6851,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2">
       <c r="A581" s="3">
         <v>9312</v>
       </c>
@@ -6811,7 +6859,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2">
       <c r="A582" s="3">
         <v>9313</v>
       </c>
@@ -6819,7 +6867,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:2">
       <c r="A583" s="3">
         <v>932</v>
       </c>
@@ -6827,7 +6875,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2">
       <c r="A584" s="3">
         <v>9321</v>
       </c>
@@ -6835,7 +6883,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2">
       <c r="A585" s="3">
         <v>9329</v>
       </c>
@@ -6843,7 +6891,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2">
       <c r="A586" s="3">
         <v>933</v>
       </c>
@@ -6851,7 +6899,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2">
       <c r="A587" s="3">
         <v>9331</v>
       </c>
@@ -6859,7 +6907,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2">
       <c r="A588" s="3">
         <v>9332</v>
       </c>
@@ -6867,7 +6915,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2">
       <c r="A589" s="3">
         <v>9333</v>
       </c>
@@ -6875,7 +6923,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2">
       <c r="A590" s="3">
         <v>9334</v>
       </c>
@@ -6883,7 +6931,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2" ht="15">
       <c r="A591" s="2">
         <v>94</v>
       </c>
@@ -6891,7 +6939,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2">
       <c r="A592" s="3">
         <v>941</v>
       </c>
@@ -6899,7 +6947,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2">
       <c r="A593" s="3">
         <v>9411</v>
       </c>
@@ -6907,7 +6955,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2">
       <c r="A594" s="3">
         <v>9412</v>
       </c>
@@ -6915,7 +6963,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2" ht="15">
       <c r="A595" s="2">
         <v>95</v>
       </c>
@@ -6923,7 +6971,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2">
       <c r="A596" s="3">
         <v>951</v>
       </c>
@@ -6931,7 +6979,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2">
       <c r="A597" s="3">
         <v>9510</v>
       </c>
@@ -6939,7 +6987,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2">
       <c r="A598" s="3">
         <v>952</v>
       </c>
@@ -6947,7 +6995,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2">
       <c r="A599" s="3">
         <v>9520</v>
       </c>
@@ -6955,7 +7003,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2" ht="15">
       <c r="A600" s="2">
         <v>96</v>
       </c>
@@ -6963,7 +7011,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2">
       <c r="A601" s="3">
         <v>961</v>
       </c>
@@ -6971,7 +7019,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2">
       <c r="A602" s="3">
         <v>9611</v>
       </c>
@@ -6979,7 +7027,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2">
       <c r="A603" s="3">
         <v>9612</v>
       </c>
@@ -6987,7 +7035,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2">
       <c r="A604" s="3">
         <v>9613</v>
       </c>
@@ -6995,7 +7043,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2">
       <c r="A605" s="3">
         <v>962</v>
       </c>
@@ -7003,7 +7051,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:2">
       <c r="A606" s="3">
         <v>9621</v>
       </c>
@@ -7011,7 +7059,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:2">
       <c r="A607" s="3">
         <v>9622</v>
       </c>
@@ -7019,7 +7067,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2">
       <c r="A608" s="3">
         <v>9623</v>
       </c>
@@ -7027,7 +7075,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:2">
       <c r="A609" s="3">
         <v>9624</v>
       </c>
@@ -7035,12 +7083,92 @@
         <v>576</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:2">
       <c r="A610" s="3">
         <v>9629</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>577</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" ht="15.75">
+      <c r="A611" s="7">
+        <v>0</v>
+      </c>
+      <c r="B611" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" ht="15">
+      <c r="A612" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B612" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B613" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B614" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" ht="15">
+      <c r="A615" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="B615" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B616" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B617" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" ht="15">
+      <c r="A618" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B618" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B619" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="B620" s="4" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/LFSNEWData/ISCO_fullCode.xlsx
+++ b/LFSNEWData/ISCO_fullCode.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$40</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="595">
   <si>
     <t>Managers</t>
   </si>
@@ -1796,6 +1796,12 @@
   </si>
   <si>
     <t>0310</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Empty</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2200,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2202,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B620"/>
+  <dimension ref="A1:B621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A584" workbookViewId="0">
-      <selection activeCell="D612" sqref="D612"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2222,241 +2228,241 @@
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" s="1">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="2">
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="2">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3">
-        <v>111</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3">
-        <v>1111</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3">
-        <v>112</v>
+        <v>1114</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3">
-        <v>1120</v>
+        <v>112</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="2">
+    <row r="11" spans="1:2">
+      <c r="A11" s="3">
+        <v>1120</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3">
-        <v>121</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3">
-        <v>1211</v>
+        <v>121</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3">
-        <v>122</v>
+        <v>1219</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3">
-        <v>1221</v>
+        <v>122</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3">
+        <v>1222</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3">
         <v>1223</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15">
-      <c r="A21" s="2">
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3">
-        <v>131</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3">
-        <v>1311</v>
+        <v>131</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3">
-        <v>132</v>
+        <v>1312</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3">
-        <v>1321</v>
+        <v>132</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3">
-        <v>133</v>
+        <v>1324</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3">
-        <v>1330</v>
+        <v>133</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>27</v>
@@ -2464,111 +2470,111 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3">
-        <v>134</v>
+        <v>1330</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3">
-        <v>1341</v>
+        <v>134</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3">
+        <v>1346</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3">
         <v>1349</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15">
-      <c r="A40" s="2">
+    <row r="41" spans="1:2" ht="15">
+      <c r="A41" s="2">
         <v>14</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3">
-        <v>141</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3">
-        <v>1411</v>
+        <v>141</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3">
-        <v>142</v>
+        <v>1412</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3">
-        <v>1420</v>
+        <v>142</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>40</v>
@@ -2576,95 +2582,95 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3">
-        <v>143</v>
+        <v>1420</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3">
-        <v>1431</v>
+        <v>143</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3">
+        <v>1431</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3">
         <v>1439</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75">
-      <c r="A49" s="1">
+    <row r="50" spans="1:2" ht="15.75">
+      <c r="A50" s="1">
         <v>2</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15">
-      <c r="A50" s="2">
+    <row r="51" spans="1:2" ht="15">
+      <c r="A51" s="2">
         <v>21</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="3">
-        <v>211</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3">
-        <v>2111</v>
+        <v>211</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3">
-        <v>212</v>
+        <v>2114</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3">
-        <v>2120</v>
+        <v>212</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>51</v>
@@ -2672,255 +2678,255 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3">
-        <v>213</v>
+        <v>2120</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3">
-        <v>2131</v>
+        <v>213</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="3">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3">
-        <v>214</v>
+        <v>2133</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3">
-        <v>2141</v>
+        <v>214</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="3">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="3">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3">
-        <v>215</v>
+        <v>2149</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3">
-        <v>2151</v>
+        <v>215</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3">
-        <v>216</v>
+        <v>2153</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="3">
-        <v>2161</v>
+        <v>216</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="3">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="3">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="3">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3">
+        <v>2165</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="3">
         <v>2166</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15">
-      <c r="A81" s="2">
+    <row r="82" spans="1:2" ht="15">
+      <c r="A82" s="2">
         <v>22</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="3">
-        <v>221</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3">
-        <v>2211</v>
+        <v>221</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="3">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="3">
-        <v>222</v>
+        <v>2212</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="3">
-        <v>2221</v>
+        <v>222</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="3">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="3">
-        <v>223</v>
+        <v>2222</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="3">
-        <v>2230</v>
+        <v>223</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>82</v>
@@ -2928,15 +2934,15 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3">
-        <v>224</v>
+        <v>2230</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="3">
-        <v>2240</v>
+        <v>224</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>83</v>
@@ -2944,15 +2950,15 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3">
-        <v>225</v>
+        <v>2240</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="3">
-        <v>2250</v>
+        <v>225</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>84</v>
@@ -2960,95 +2966,95 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="3">
-        <v>226</v>
+        <v>2250</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="3">
-        <v>2261</v>
+        <v>226</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="3">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="3">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="3">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="3">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="3">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="3">
+        <v>2267</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="3">
         <v>2269</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15">
-      <c r="A103" s="2">
+    <row r="104" spans="1:2" ht="15">
+      <c r="A104" s="2">
         <v>23</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="3">
-        <v>231</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="3">
-        <v>2310</v>
+        <v>231</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>95</v>
@@ -3056,15 +3062,15 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="3">
-        <v>232</v>
+        <v>2310</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="3">
-        <v>2320</v>
+        <v>232</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>96</v>
@@ -3072,15 +3078,15 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="3">
-        <v>233</v>
+        <v>2320</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="3">
-        <v>2330</v>
+        <v>233</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>97</v>
@@ -3088,871 +3094,871 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="3">
-        <v>234</v>
+        <v>2330</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="3">
-        <v>2341</v>
+        <v>234</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="3">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="3">
-        <v>235</v>
+        <v>2342</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="3">
-        <v>2351</v>
+        <v>235</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="3">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="3">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="3">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="3">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="3">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="3">
+        <v>2356</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="3">
         <v>2359</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15">
-      <c r="A121" s="2">
+    <row r="122" spans="1:2" ht="15">
+      <c r="A122" s="2">
         <v>24</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="3">
-        <v>241</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="3">
-        <v>2411</v>
+        <v>241</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="3">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="3">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="3">
-        <v>242</v>
+        <v>2413</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="3">
-        <v>2421</v>
+        <v>242</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="3">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="3">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="3">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="3">
-        <v>243</v>
+        <v>2424</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="3">
-        <v>2431</v>
+        <v>243</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="3">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="3">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="3">
+        <v>2433</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="3">
         <v>2434</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B136" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15">
-      <c r="A136" s="2">
+    <row r="137" spans="1:2" ht="15">
+      <c r="A137" s="2">
         <v>25</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B137" s="2" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="3">
-        <v>251</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="3">
-        <v>2511</v>
+        <v>251</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="3">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="3">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="3">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="3">
-        <v>2519</v>
+        <v>2514</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="3">
-        <v>252</v>
+        <v>2519</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="3">
-        <v>2521</v>
+        <v>252</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="3">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="3">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="3">
+        <v>2523</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="3">
         <v>2529</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B148" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15">
-      <c r="A148" s="2">
+    <row r="149" spans="1:2" ht="15">
+      <c r="A149" s="2">
         <v>26</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B149" s="2" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="3">
-        <v>261</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="3">
-        <v>2611</v>
+        <v>261</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="3">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="3">
-        <v>2619</v>
+        <v>2612</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="3">
-        <v>262</v>
+        <v>2619</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="3">
-        <v>2621</v>
+        <v>262</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="3">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="3">
-        <v>263</v>
+        <v>2622</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="3">
-        <v>2631</v>
+        <v>263</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="3">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="3">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="3">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="3">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="3">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="3">
-        <v>264</v>
+        <v>2636</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="3">
-        <v>2641</v>
+        <v>264</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="3">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="3">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="3">
-        <v>265</v>
+        <v>2643</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="3">
-        <v>2651</v>
+        <v>265</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="3">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="3">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="3">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="3">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="3">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="3">
+        <v>2656</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="3">
         <v>2659</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B175" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15.75">
-      <c r="A175" s="1">
+    <row r="176" spans="1:2" ht="15.75">
+      <c r="A176" s="1">
         <v>3</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15">
-      <c r="A176" s="2">
+    <row r="177" spans="1:2" ht="15">
+      <c r="A177" s="2">
         <v>31</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="3">
-        <v>311</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="3">
-        <v>3111</v>
+        <v>311</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="3">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="3">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="3">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="3">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="3">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="3">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="3">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="3">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="3">
-        <v>312</v>
+        <v>3119</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="3">
-        <v>3121</v>
+        <v>312</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="3">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="3">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="3">
-        <v>313</v>
+        <v>3123</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="3">
-        <v>3131</v>
+        <v>313</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="3">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="3">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="3">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="3">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="3">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="3">
-        <v>314</v>
+        <v>3139</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="3">
-        <v>3141</v>
+        <v>314</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="3">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="3">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="3">
-        <v>315</v>
+        <v>3143</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="3">
-        <v>3151</v>
+        <v>315</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="3">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="3">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="3">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="3">
+        <v>3154</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="3">
         <v>3155</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B208" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15">
-      <c r="A208" s="2">
+    <row r="209" spans="1:2" ht="15">
+      <c r="A209" s="2">
         <v>32</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B209" s="2" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="3">
-        <v>321</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="3">
-        <v>3211</v>
+        <v>321</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="3">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="3">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="3">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="3">
-        <v>322</v>
+        <v>3214</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="3">
-        <v>3221</v>
+        <v>322</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="3">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="3">
-        <v>323</v>
+        <v>3222</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="3">
-        <v>3230</v>
+        <v>323</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>205</v>
@@ -3960,15 +3966,15 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="3">
-        <v>324</v>
+        <v>3230</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="3">
-        <v>3240</v>
+        <v>324</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>206</v>
@@ -3976,543 +3982,543 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="3">
-        <v>325</v>
+        <v>3240</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="3">
-        <v>3251</v>
+        <v>325</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="3">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="3">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="3">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="3">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="3">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="3">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="3">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="3">
+        <v>3258</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="3">
         <v>3259</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B231" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15">
-      <c r="A231" s="2">
+    <row r="232" spans="1:2" ht="15">
+      <c r="A232" s="2">
         <v>33</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B232" s="2" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="3">
-        <v>331</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="3">
-        <v>3311</v>
+        <v>331</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="3">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="3">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="3">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="3">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="3">
-        <v>332</v>
+        <v>3315</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="3">
-        <v>3321</v>
+        <v>332</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="3">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="3">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="3">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="3">
-        <v>333</v>
+        <v>3324</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="3">
-        <v>3331</v>
+        <v>333</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="3">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="3">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="3">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="3">
-        <v>3339</v>
+        <v>3334</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="3">
-        <v>334</v>
+        <v>3339</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="3">
-        <v>3341</v>
+        <v>334</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="3">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="3">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="3">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="3">
-        <v>335</v>
+        <v>3344</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="3">
-        <v>3351</v>
+        <v>335</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="3">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="3">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="3">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="3">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="3">
+        <v>3355</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="3">
         <v>3359</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B261" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15">
-      <c r="A261" s="2">
+    <row r="262" spans="1:2" ht="15">
+      <c r="A262" s="2">
         <v>34</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B262" s="2" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="3">
-        <v>341</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="3">
-        <v>3411</v>
+        <v>341</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="3">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="3">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="3">
-        <v>342</v>
+        <v>3413</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="3">
-        <v>3421</v>
+        <v>342</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="3">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="3">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="3">
-        <v>343</v>
+        <v>3423</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="3">
-        <v>3431</v>
+        <v>343</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="3">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="3">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="3">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="3">
+        <v>3434</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="3">
         <v>3435</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B276" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="15">
-      <c r="A276" s="2">
+    <row r="277" spans="1:2" ht="15">
+      <c r="A277" s="2">
         <v>35</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B277" s="2" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="3">
-        <v>351</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="3">
-        <v>3511</v>
+        <v>351</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="3">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="3">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="3">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="3">
-        <v>352</v>
+        <v>3514</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="3">
-        <v>3521</v>
+        <v>352</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="3">
+        <v>3521</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="3">
         <v>3522</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B285" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="15.75">
-      <c r="A285" s="1">
+    <row r="286" spans="1:2" ht="15.75">
+      <c r="A286" s="1">
         <v>4</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B286" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="15">
-      <c r="A286" s="2">
+    <row r="287" spans="1:2" ht="15">
+      <c r="A287" s="2">
         <v>41</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B287" s="2" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="3">
-        <v>411</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="3">
-        <v>4110</v>
+        <v>411</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>273</v>
@@ -4520,15 +4526,15 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="3">
-        <v>412</v>
+        <v>4110</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="3">
-        <v>4120</v>
+        <v>412</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>274</v>
@@ -4536,564 +4542,564 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="3">
-        <v>413</v>
+        <v>4120</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="3">
-        <v>4131</v>
+        <v>413</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="3">
+        <v>4131</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="3">
         <v>4132</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B294" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="15">
-      <c r="A294" s="2">
+    <row r="295" spans="1:2" ht="15">
+      <c r="A295" s="2">
         <v>42</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B295" s="2" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="3">
-        <v>421</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="3">
-        <v>4211</v>
+        <v>421</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="3">
-        <v>4212</v>
+        <v>4211</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="3">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="3">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="3">
-        <v>422</v>
+        <v>4214</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="3">
-        <v>4221</v>
+        <v>422</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="3">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="3">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="3">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="3">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="3">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="3">
-        <v>4227</v>
+        <v>4226</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="3">
+        <v>4227</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="3">
         <v>4229</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B309" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="15">
-      <c r="A309" s="2">
+    <row r="310" spans="1:2" ht="15">
+      <c r="A310" s="2">
         <v>43</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B310" s="2" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="3">
-        <v>431</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="3">
-        <v>4311</v>
+        <v>431</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="3">
-        <v>4312</v>
+        <v>4311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="3">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="3">
-        <v>432</v>
+        <v>4313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="3">
-        <v>4321</v>
+        <v>432</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="3">
-        <v>4322</v>
+        <v>4321</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="3">
+        <v>4322</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="3">
         <v>4323</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B318" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="15">
-      <c r="A318" s="2">
+    <row r="319" spans="1:2" ht="15">
+      <c r="A319" s="2">
         <v>44</v>
       </c>
-      <c r="B318" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="3">
-        <v>441</v>
-      </c>
-      <c r="B319" s="3" t="s">
+      <c r="B319" s="2" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="3">
-        <v>4411</v>
+        <v>441</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="3">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="3">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="3">
-        <v>4414</v>
+        <v>4413</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="3">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="3">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="3">
+        <v>4416</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="3">
         <v>4419</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B327" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="15.75">
-      <c r="A327" s="1">
+    <row r="328" spans="1:2" ht="15.75">
+      <c r="A328" s="1">
         <v>5</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="B328" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="15">
-      <c r="A328" s="2">
+    <row r="329" spans="1:2" ht="15">
+      <c r="A329" s="2">
         <v>51</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B329" s="2" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="3">
-        <v>511</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="3">
-        <v>5111</v>
+        <v>511</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="3">
-        <v>5112</v>
+        <v>5111</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="3">
-        <v>5113</v>
+        <v>5112</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="3">
-        <v>512</v>
+        <v>5113</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="3">
-        <v>5120</v>
+        <v>512</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="3">
-        <v>513</v>
-      </c>
-      <c r="B335" s="3" t="s">
-        <v>317</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="3">
-        <v>5131</v>
+        <v>513</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="3">
-        <v>5132</v>
+        <v>5131</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="3">
-        <v>514</v>
+        <v>5132</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="3">
-        <v>5141</v>
+        <v>514</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="3">
-        <v>5142</v>
+        <v>5141</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="3">
-        <v>515</v>
+        <v>5142</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="3">
-        <v>5151</v>
+        <v>515</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="3">
-        <v>5152</v>
+        <v>5151</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="3">
-        <v>5153</v>
+        <v>5152</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="3">
-        <v>516</v>
+        <v>5153</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="3">
-        <v>5161</v>
+        <v>516</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="3">
-        <v>5162</v>
+        <v>5161</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="3">
-        <v>5163</v>
+        <v>5162</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="3">
-        <v>5164</v>
+        <v>5163</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="3">
-        <v>5165</v>
+        <v>5164</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="3">
+        <v>5165</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="3">
         <v>5169</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="B352" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="15">
-      <c r="A352" s="2">
+    <row r="353" spans="1:2" ht="15">
+      <c r="A353" s="2">
         <v>52</v>
       </c>
-      <c r="B352" s="2" t="s">
+      <c r="B353" s="2" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353" s="3">
-        <v>521</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="3">
-        <v>5211</v>
+        <v>521</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="3">
-        <v>5212</v>
+        <v>5211</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="3">
-        <v>522</v>
+        <v>5212</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="3">
-        <v>5221</v>
+        <v>522</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="3">
-        <v>5222</v>
+        <v>5221</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="3">
-        <v>5223</v>
+        <v>5222</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="3">
-        <v>523</v>
+        <v>5223</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="3">
-        <v>5230</v>
+        <v>523</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>342</v>
@@ -5101,319 +5107,319 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="3">
-        <v>524</v>
+        <v>5230</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="3">
-        <v>5241</v>
+        <v>524</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="3">
-        <v>5242</v>
+        <v>5241</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="3">
-        <v>5243</v>
+        <v>5242</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="3">
-        <v>5244</v>
+        <v>5243</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="3">
-        <v>5245</v>
+        <v>5244</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="3">
-        <v>5246</v>
+        <v>5245</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="3">
+        <v>5246</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="3">
         <v>5249</v>
       </c>
-      <c r="B369" s="3" t="s">
+      <c r="B370" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="15">
-      <c r="A370" s="2">
+    <row r="371" spans="1:2" ht="15">
+      <c r="A371" s="2">
         <v>53</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B371" s="2" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
-      <c r="A371" s="3">
-        <v>531</v>
-      </c>
-      <c r="B371" s="3" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="3">
-        <v>5311</v>
+        <v>531</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="3">
-        <v>5312</v>
+        <v>5311</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="3">
-        <v>532</v>
+        <v>5312</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="3">
-        <v>5321</v>
+        <v>532</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="3">
-        <v>5322</v>
+        <v>5321</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="3">
+        <v>5322</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="3">
         <v>5329</v>
       </c>
-      <c r="B377" s="3" t="s">
+      <c r="B378" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="15">
-      <c r="A378" s="2">
+    <row r="379" spans="1:2" ht="15">
+      <c r="A379" s="2">
         <v>54</v>
       </c>
-      <c r="B378" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379" s="3">
-        <v>541</v>
-      </c>
-      <c r="B379" s="3" t="s">
+      <c r="B379" s="2" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="3">
-        <v>5411</v>
+        <v>541</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="3">
-        <v>5412</v>
+        <v>5411</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="3">
-        <v>5413</v>
+        <v>5412</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="3">
-        <v>5414</v>
+        <v>5413</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="3">
+        <v>5414</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="3">
         <v>5419</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="B385" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="15.75">
-      <c r="A385" s="1">
+    <row r="386" spans="1:2" ht="15.75">
+      <c r="A386" s="1">
         <v>6</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="B386" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="15">
-      <c r="A386" s="2">
+    <row r="387" spans="1:2" ht="15">
+      <c r="A387" s="2">
         <v>61</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B387" s="2" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
-      <c r="A387" s="3">
-        <v>611</v>
-      </c>
-      <c r="B387" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="3">
-        <v>6111</v>
+        <v>611</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="3">
-        <v>6112</v>
+        <v>6111</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="3">
-        <v>6113</v>
+        <v>6112</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="3">
-        <v>6114</v>
+        <v>6113</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="3">
-        <v>612</v>
+        <v>6114</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="3">
-        <v>6121</v>
+        <v>612</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="3">
-        <v>6122</v>
+        <v>6121</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="3">
-        <v>6123</v>
+        <v>6122</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="3">
-        <v>6129</v>
+        <v>6123</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="3">
-        <v>613</v>
+        <v>6129</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="3">
-        <v>6130</v>
+        <v>613</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="15">
-      <c r="A399" s="2">
+    <row r="399" spans="1:2">
+      <c r="A399" s="3">
+        <v>6130</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="15">
+      <c r="A400" s="2">
         <v>62</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B400" s="2" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2">
-      <c r="A400" s="3">
-        <v>621</v>
-      </c>
-      <c r="B400" s="3" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="3">
-        <v>6210</v>
+        <v>621</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>379</v>
@@ -5421,63 +5427,63 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="3">
-        <v>622</v>
+        <v>6210</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="3">
-        <v>6221</v>
+        <v>622</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="3">
-        <v>6222</v>
+        <v>6221</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="3">
-        <v>6223</v>
+        <v>6222</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="3">
+        <v>6223</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="3">
         <v>6224</v>
       </c>
-      <c r="B406" s="3" t="s">
+      <c r="B407" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="15">
-      <c r="A407" s="2">
+    <row r="408" spans="1:2" ht="15">
+      <c r="A408" s="2">
         <v>63</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B408" s="2" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2">
-      <c r="A408" s="3">
-        <v>631</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="3">
-        <v>6310</v>
+        <v>631</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>386</v>
@@ -5485,15 +5491,15 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="3">
-        <v>632</v>
+        <v>6310</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="3">
-        <v>6320</v>
+        <v>632</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>387</v>
@@ -5501,15 +5507,15 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="3">
-        <v>633</v>
+        <v>6320</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="3">
-        <v>6330</v>
+        <v>633</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>388</v>
@@ -5517,927 +5523,927 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="3">
-        <v>634</v>
+        <v>6330</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="3">
-        <v>6340</v>
+        <v>634</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="15.75">
-      <c r="A416" s="1">
+    <row r="416" spans="1:2">
+      <c r="A416" s="3">
+        <v>6340</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="15.75">
+      <c r="A417" s="1">
         <v>7</v>
       </c>
-      <c r="B416" s="1" t="s">
+      <c r="B417" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="15">
-      <c r="A417" s="2">
+    <row r="418" spans="1:2" ht="15">
+      <c r="A418" s="2">
         <v>71</v>
       </c>
-      <c r="B417" s="2" t="s">
+      <c r="B418" s="2" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2">
-      <c r="A418" s="3">
-        <v>711</v>
-      </c>
-      <c r="B418" s="3" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="3">
-        <v>7111</v>
+        <v>711</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="3">
-        <v>7112</v>
+        <v>7111</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="3">
-        <v>7113</v>
+        <v>7112</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="3">
-        <v>7114</v>
+        <v>7113</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="3">
-        <v>7115</v>
+        <v>7114</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="3">
-        <v>7119</v>
+        <v>7115</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="3">
-        <v>712</v>
+        <v>7119</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="3">
-        <v>7121</v>
+        <v>712</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="3">
-        <v>7122</v>
+        <v>7121</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="3">
-        <v>7123</v>
+        <v>7122</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="3">
-        <v>7124</v>
+        <v>7123</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="3">
-        <v>7125</v>
+        <v>7124</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="3">
-        <v>7126</v>
+        <v>7125</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="3">
-        <v>7127</v>
+        <v>7126</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="3">
-        <v>713</v>
+        <v>7127</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="3">
-        <v>7131</v>
+        <v>713</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="3">
-        <v>7132</v>
+        <v>7131</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="3">
+        <v>7132</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="3">
         <v>7133</v>
       </c>
-      <c r="B436" s="3" t="s">
+      <c r="B437" s="3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="15">
-      <c r="A437" s="2">
+    <row r="438" spans="1:2" ht="15">
+      <c r="A438" s="2">
         <v>72</v>
       </c>
-      <c r="B437" s="2" t="s">
+      <c r="B438" s="2" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2">
-      <c r="A438" s="3">
-        <v>721</v>
-      </c>
-      <c r="B438" s="3" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="3">
-        <v>7211</v>
+        <v>721</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="3">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="3">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="3">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="3">
-        <v>7215</v>
+        <v>7214</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="3">
-        <v>722</v>
+        <v>7215</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="3">
-        <v>7221</v>
+        <v>722</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="3">
-        <v>7222</v>
+        <v>7221</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="3">
-        <v>7223</v>
+        <v>7222</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="3">
-        <v>7224</v>
+        <v>7223</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="3">
-        <v>723</v>
+        <v>7224</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="3">
-        <v>7231</v>
+        <v>723</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="3">
-        <v>7232</v>
+        <v>7231</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="3">
-        <v>7233</v>
+        <v>7232</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="3">
+        <v>7233</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="3">
         <v>7234</v>
       </c>
-      <c r="B453" s="3" t="s">
+      <c r="B454" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="15">
-      <c r="A454" s="2">
+    <row r="455" spans="1:2" ht="15">
+      <c r="A455" s="2">
         <v>73</v>
       </c>
-      <c r="B454" s="2" t="s">
+      <c r="B455" s="2" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2">
-      <c r="A455" s="3">
-        <v>731</v>
-      </c>
-      <c r="B455" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="3">
-        <v>7311</v>
+        <v>731</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="3">
-        <v>7312</v>
+        <v>7311</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="3">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="3">
-        <v>7314</v>
+        <v>7313</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="3">
-        <v>7315</v>
+        <v>7314</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="3">
-        <v>7316</v>
+        <v>7315</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="3">
-        <v>7317</v>
+        <v>7316</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="3">
-        <v>7318</v>
+        <v>7317</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="3">
-        <v>7319</v>
+        <v>7318</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="3">
-        <v>732</v>
+        <v>7319</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="3">
-        <v>7321</v>
+        <v>732</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="3">
-        <v>7322</v>
+        <v>7321</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="3">
+        <v>7322</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="3">
         <v>7323</v>
       </c>
-      <c r="B468" s="3" t="s">
+      <c r="B469" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="15">
-      <c r="A469" s="2">
+    <row r="470" spans="1:2" ht="15">
+      <c r="A470" s="2">
         <v>74</v>
       </c>
-      <c r="B469" s="2" t="s">
+      <c r="B470" s="2" t="s">
         <v>443</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2">
-      <c r="A470" s="3">
-        <v>741</v>
-      </c>
-      <c r="B470" s="3" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="3">
-        <v>7411</v>
+        <v>741</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="3">
-        <v>7412</v>
+        <v>7411</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="3">
-        <v>7413</v>
+        <v>7412</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="3">
-        <v>742</v>
+        <v>7413</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="3">
-        <v>7421</v>
+        <v>742</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="3">
+        <v>7421</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="3">
         <v>7422</v>
       </c>
-      <c r="B476" s="3" t="s">
+      <c r="B477" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="15">
-      <c r="A477" s="2">
+    <row r="478" spans="1:2" ht="15">
+      <c r="A478" s="2">
         <v>75</v>
       </c>
-      <c r="B477" s="2" t="s">
+      <c r="B478" s="2" t="s">
         <v>451</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2">
-      <c r="A478" s="3">
-        <v>751</v>
-      </c>
-      <c r="B478" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="3">
-        <v>7511</v>
+        <v>751</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="3">
-        <v>7512</v>
+        <v>7511</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="3">
-        <v>7513</v>
+        <v>7512</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="3">
-        <v>7514</v>
+        <v>7513</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="3">
-        <v>7515</v>
+        <v>7514</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="3">
-        <v>7516</v>
+        <v>7515</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="3">
-        <v>752</v>
+        <v>7516</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="3">
-        <v>7521</v>
+        <v>752</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="3">
-        <v>7522</v>
+        <v>7521</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="3">
-        <v>7523</v>
+        <v>7522</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="3">
-        <v>753</v>
+        <v>7523</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="3">
-        <v>7531</v>
+        <v>753</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="3">
-        <v>7532</v>
+        <v>7531</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="3">
-        <v>7533</v>
+        <v>7532</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="3">
-        <v>7534</v>
+        <v>7533</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="3">
-        <v>7535</v>
+        <v>7534</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="3">
-        <v>7536</v>
+        <v>7535</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="3">
-        <v>754</v>
+        <v>7536</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="3">
-        <v>7541</v>
+        <v>754</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="3">
-        <v>7542</v>
+        <v>7541</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="3">
-        <v>7543</v>
+        <v>7542</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="3">
+        <v>7543</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="3">
         <v>7544</v>
       </c>
-      <c r="B500" s="3" t="s">
+      <c r="B501" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="39" customHeight="1">
-      <c r="A501" s="3">
+    <row r="502" spans="1:2" ht="39" customHeight="1">
+      <c r="A502" s="3">
         <v>7549</v>
       </c>
-      <c r="B501" s="3" t="s">
+      <c r="B502" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="15.75">
-      <c r="A502" s="1">
+    <row r="503" spans="1:2" ht="15.75">
+      <c r="A503" s="1">
         <v>8</v>
       </c>
-      <c r="B502" s="1" t="s">
+      <c r="B503" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="15">
-      <c r="A503" s="2">
+    <row r="504" spans="1:2" ht="15">
+      <c r="A504" s="2">
         <v>81</v>
       </c>
-      <c r="B503" s="2" t="s">
+      <c r="B504" s="2" t="s">
         <v>477</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2">
-      <c r="A504" s="3">
-        <v>811</v>
-      </c>
-      <c r="B504" s="3" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="3">
-        <v>8111</v>
+        <v>811</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="3">
-        <v>8112</v>
+        <v>8111</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="3">
-        <v>8113</v>
+        <v>8112</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="3">
-        <v>8114</v>
+        <v>8113</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="3">
-        <v>812</v>
+        <v>8114</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="3">
-        <v>8121</v>
+        <v>812</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="3">
-        <v>8122</v>
+        <v>8121</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="3">
-        <v>813</v>
+        <v>8122</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="3">
-        <v>8131</v>
+        <v>813</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="3">
-        <v>8132</v>
+        <v>8131</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="3">
-        <v>814</v>
+        <v>8132</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="3">
-        <v>8141</v>
+        <v>814</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="3">
-        <v>8142</v>
+        <v>8141</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="3">
-        <v>8143</v>
+        <v>8142</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="3">
-        <v>815</v>
+        <v>8143</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="3">
-        <v>8151</v>
+        <v>815</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="3">
-        <v>8152</v>
+        <v>8151</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="3">
-        <v>8153</v>
+        <v>8152</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="3">
-        <v>8154</v>
+        <v>8153</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="3">
-        <v>8155</v>
+        <v>8154</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="3">
-        <v>8156</v>
+        <v>8155</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="3">
-        <v>8157</v>
+        <v>8156</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="3">
-        <v>8159</v>
+        <v>8157</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="3">
-        <v>816</v>
+        <v>8159</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="3">
-        <v>8160</v>
+        <v>816</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>502</v>
@@ -6445,543 +6451,543 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="3">
-        <v>817</v>
+        <v>8160</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="3">
-        <v>8171</v>
+        <v>817</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="3">
-        <v>8172</v>
+        <v>8171</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="3">
-        <v>818</v>
+        <v>8172</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="3">
-        <v>8181</v>
+        <v>818</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="3">
-        <v>8182</v>
+        <v>8181</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="3">
-        <v>8183</v>
+        <v>8182</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="3">
+        <v>8183</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="3">
         <v>8189</v>
       </c>
-      <c r="B537" s="3" t="s">
+      <c r="B538" s="3" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="15">
-      <c r="A538" s="2">
+    <row r="539" spans="1:2" ht="15">
+      <c r="A539" s="2">
         <v>82</v>
       </c>
-      <c r="B538" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2">
-      <c r="A539" s="3">
-        <v>821</v>
-      </c>
-      <c r="B539" s="3" t="s">
+      <c r="B539" s="2" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="3">
-        <v>8211</v>
+        <v>821</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="3">
-        <v>8212</v>
+        <v>8211</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="3">
+        <v>8212</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="3">
         <v>8219</v>
       </c>
-      <c r="B542" s="3" t="s">
+      <c r="B543" s="3" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="543" spans="1:2" ht="15">
-      <c r="A543" s="2">
+    <row r="544" spans="1:2" ht="15">
+      <c r="A544" s="2">
         <v>83</v>
       </c>
-      <c r="B543" s="2" t="s">
+      <c r="B544" s="2" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2">
-      <c r="A544" s="3">
-        <v>831</v>
-      </c>
-      <c r="B544" s="3" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="3">
-        <v>8311</v>
+        <v>831</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="3">
-        <v>8312</v>
+        <v>8311</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="3">
-        <v>832</v>
+        <v>8312</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="3">
-        <v>8321</v>
+        <v>832</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="3">
-        <v>8322</v>
+        <v>8321</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="3">
-        <v>833</v>
+        <v>8322</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="3">
-        <v>8331</v>
+        <v>833</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="3">
-        <v>8332</v>
+        <v>8331</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="3">
-        <v>834</v>
+        <v>8332</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="3">
-        <v>8341</v>
+        <v>834</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="3">
-        <v>8342</v>
+        <v>8341</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="3">
-        <v>8343</v>
+        <v>8342</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="3">
-        <v>8344</v>
+        <v>8343</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="3">
-        <v>835</v>
+        <v>8344</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="3">
-        <v>8350</v>
+        <v>835</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="15.75">
-      <c r="A560" s="1">
+    <row r="560" spans="1:2">
+      <c r="A560" s="3">
+        <v>8350</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="15.75">
+      <c r="A561" s="1">
         <v>9</v>
       </c>
-      <c r="B560" s="1" t="s">
+      <c r="B561" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="561" spans="1:2" ht="15">
-      <c r="A561" s="2">
+    <row r="562" spans="1:2" ht="15">
+      <c r="A562" s="2">
         <v>91</v>
       </c>
-      <c r="B561" s="2" t="s">
+      <c r="B562" s="2" t="s">
         <v>532</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2">
-      <c r="A562" s="3">
-        <v>911</v>
-      </c>
-      <c r="B562" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="3">
-        <v>9111</v>
+        <v>911</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="3">
-        <v>9112</v>
+        <v>9111</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="3">
-        <v>912</v>
+        <v>9112</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="3">
-        <v>9121</v>
+        <v>912</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="3">
-        <v>9122</v>
+        <v>9121</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="3">
-        <v>9123</v>
+        <v>9122</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="3">
+        <v>9123</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="3">
         <v>9129</v>
       </c>
-      <c r="B569" s="3" t="s">
+      <c r="B570" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="15">
-      <c r="A570" s="2">
+    <row r="571" spans="1:2" ht="15">
+      <c r="A571" s="2">
         <v>92</v>
       </c>
-      <c r="B570" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2">
-      <c r="A571" s="3">
-        <v>921</v>
-      </c>
-      <c r="B571" s="3" t="s">
+      <c r="B571" s="2" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="3">
-        <v>9211</v>
+        <v>921</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="3">
-        <v>9212</v>
+        <v>9211</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="3">
-        <v>9213</v>
+        <v>9212</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="3">
-        <v>9214</v>
+        <v>9213</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="3">
-        <v>9215</v>
+        <v>9214</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="3">
+        <v>9215</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="3">
         <v>9216</v>
       </c>
-      <c r="B577" s="3" t="s">
+      <c r="B578" s="3" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="15">
-      <c r="A578" s="2">
+    <row r="579" spans="1:2" ht="15">
+      <c r="A579" s="2">
         <v>93</v>
       </c>
-      <c r="B578" s="2" t="s">
+      <c r="B579" s="2" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2">
-      <c r="A579" s="3">
-        <v>931</v>
-      </c>
-      <c r="B579" s="3" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="3">
-        <v>9311</v>
+        <v>931</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="3">
-        <v>9312</v>
+        <v>9311</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="3">
-        <v>9313</v>
+        <v>9312</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="3">
-        <v>932</v>
+        <v>9313</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="3">
-        <v>9321</v>
+        <v>932</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="3">
-        <v>9329</v>
+        <v>9321</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="3">
-        <v>933</v>
+        <v>9329</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="3">
-        <v>9331</v>
+        <v>933</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="3">
-        <v>9332</v>
+        <v>9331</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="3">
-        <v>9333</v>
+        <v>9332</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="3">
+        <v>9333</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="3">
         <v>9334</v>
       </c>
-      <c r="B590" s="3" t="s">
+      <c r="B591" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="591" spans="1:2" ht="15">
-      <c r="A591" s="2">
+    <row r="592" spans="1:2" ht="15">
+      <c r="A592" s="2">
         <v>94</v>
       </c>
-      <c r="B591" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2">
-      <c r="A592" s="3">
-        <v>941</v>
-      </c>
-      <c r="B592" s="3" t="s">
+      <c r="B592" s="2" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="3">
-        <v>9411</v>
+        <v>941</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="3">
+        <v>9411</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="3">
         <v>9412</v>
       </c>
-      <c r="B594" s="3" t="s">
+      <c r="B595" s="3" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="595" spans="1:2" ht="15">
-      <c r="A595" s="2">
+    <row r="596" spans="1:2" ht="15">
+      <c r="A596" s="2">
         <v>95</v>
       </c>
-      <c r="B595" s="2" t="s">
+      <c r="B596" s="2" t="s">
         <v>564</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2">
-      <c r="A596" s="3">
-        <v>951</v>
-      </c>
-      <c r="B596" s="3" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="3">
-        <v>9510</v>
+        <v>951</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>565</v>
@@ -6989,185 +6995,193 @@
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="3">
-        <v>952</v>
+        <v>9510</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="3">
-        <v>9520</v>
+        <v>952</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="600" spans="1:2" ht="15">
-      <c r="A600" s="2">
+    <row r="600" spans="1:2">
+      <c r="A600" s="3">
+        <v>9520</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" ht="15">
+      <c r="A601" s="2">
         <v>96</v>
       </c>
-      <c r="B600" s="2" t="s">
+      <c r="B601" s="2" t="s">
         <v>567</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2">
-      <c r="A601" s="3">
-        <v>961</v>
-      </c>
-      <c r="B601" s="3" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="3">
-        <v>9611</v>
+        <v>961</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="3">
-        <v>9612</v>
+        <v>9611</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="3">
-        <v>9613</v>
+        <v>9612</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="3">
-        <v>962</v>
+        <v>9613</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="3">
-        <v>9621</v>
+        <v>962</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="3">
-        <v>9622</v>
+        <v>9621</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="3">
-        <v>9623</v>
+        <v>9622</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="3">
-        <v>9624</v>
+        <v>9623</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="3">
+        <v>9624</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="3">
         <v>9629</v>
       </c>
-      <c r="B610" s="3" t="s">
+      <c r="B611" s="3" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="611" spans="1:2" ht="15.75">
-      <c r="A611" s="7">
+    <row r="612" spans="1:2" ht="15.75">
+      <c r="A612" s="7">
         <v>0</v>
       </c>
-      <c r="B611" s="5" t="s">
+      <c r="B612" s="5" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="612" spans="1:2" ht="15">
-      <c r="A612" s="8" t="s">
+    <row r="613" spans="1:2" ht="15">
+      <c r="A613" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="B612" s="6" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2">
-      <c r="A613" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="B613" s="4" t="s">
+      <c r="B613" s="6" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B614" s="4" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="615" spans="1:2" ht="15">
-      <c r="A615" s="8" t="s">
+    <row r="615" spans="1:2">
+      <c r="A615" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B615" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" ht="15">
+      <c r="A616" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="B615" s="6" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2">
-      <c r="A616" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="B616" s="4" t="s">
+      <c r="B616" s="6" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B617" s="4" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="618" spans="1:2" ht="15">
-      <c r="A618" s="8" t="s">
+    <row r="618" spans="1:2">
+      <c r="A618" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B618" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" ht="15">
+      <c r="A619" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="B618" s="6" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2">
-      <c r="A619" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="B619" s="4" t="s">
+      <c r="B619" s="6" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B620" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="B620" s="4" t="s">
+      <c r="B621" s="4" t="s">
         <v>590</v>
       </c>
     </row>
